--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E40093-8942-48CA-B794-8C9FE535C733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C07DDC-EBEC-4ACE-AF51-5794BF2E09B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
+    <sheet name="ElementEnum" sheetId="3" r:id="rId2"/>
+    <sheet name="ActiveSkillEum" sheetId="4" r:id="rId3"/>
+    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId4"/>
+    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -88,13 +92,166 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>ElementEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>ActiveSkillEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSkillEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火喷发</t>
+  </si>
+  <si>
+    <t>怒潮龙在满血状态下会造成1.5倍的伤害。</t>
+  </si>
+  <si>
+    <t>火焰共鸣</t>
+  </si>
+  <si>
+    <t>烈火领主使用技能的本系威力加成为1.5倍。</t>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+  </si>
+  <si>
+    <t>枯木妖每受到100点伤害，适应力便增加5点，最多可以叠加到20点，并且不计入枯木妖的最大适应力。</t>
+  </si>
+  <si>
+    <t>噼里啪啦</t>
+  </si>
+  <si>
+    <t>噼啪小将使用电属性技能时，攻击力会增加10点，最多可以叠加到30点，并且不计入噼啪小将的最大攻击力。</t>
+  </si>
+  <si>
+    <t>顺风</t>
+  </si>
+  <si>
+    <t>疾风之翼使用风属性技能时，必定优先行动。</t>
+  </si>
+  <si>
+    <t>毒素治疗</t>
+  </si>
+  <si>
+    <t>毒宝宝使用毒属性技能后，会恢复此次造成伤害的30%的生命值。</t>
+  </si>
+  <si>
+    <t>大口吃</t>
+  </si>
+  <si>
+    <t>一口鲸受到技能攻击时，有20%的概率会使此次技能攻击无效。</t>
+  </si>
+  <si>
+    <t>内敛</t>
+  </si>
+  <si>
+    <t>吞火熊不会被水属性技能克制。</t>
+  </si>
+  <si>
+    <t>轰隆冲击</t>
+  </si>
+  <si>
+    <t>推土牛处于草地战场时，速度变为原来的2倍，并且此效果无视推土牛的最大速度。</t>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+  </si>
+  <si>
+    <t>电电鼠的生命值第一次不大于50%时，会更换选手；然后电电鼠下一次上场时，所有数值变为原来的1.5倍。</t>
+  </si>
+  <si>
+    <t>狂风不灭</t>
+  </si>
+  <si>
+    <t>斯托姆第一次被击败时，恢复最大生命值的50%，并且不会被击败。</t>
+  </si>
+  <si>
+    <t>集合体</t>
+  </si>
+  <si>
+    <t>小闪电第一次使用技能时，会将自身的属性变化为该技能的属性。</t>
+  </si>
+  <si>
+    <t>HuluEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒潮龙</t>
+  </si>
+  <si>
+    <t>烈火领主</t>
+  </si>
+  <si>
+    <t>枯木妖</t>
+  </si>
+  <si>
+    <t>噼啪小将</t>
+  </si>
+  <si>
+    <t>疾风之翼</t>
+  </si>
+  <si>
+    <t>毒宝宝</t>
+  </si>
+  <si>
+    <t>一口鲸</t>
+  </si>
+  <si>
+    <t>吞火熊</t>
+  </si>
+  <si>
+    <t>推土牛</t>
+  </si>
+  <si>
+    <t>电电鼠</t>
+  </si>
+  <si>
+    <t>斯托姆</t>
+  </si>
+  <si>
+    <t>小闪光</t>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkillTypeEnum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +263,28 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,13 +326,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,11 +643,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E753B2-9E0B-4797-B836-2B00659615A5}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,13 +888,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -509,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -538,6 +951,60 @@
         <v>18</v>
       </c>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -546,4 +1013,494 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0F9B5A-3908-430F-9B93-E2FA4ABC29F3}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="78.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="4">
+        <v>11</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C07DDC-EBEC-4ACE-AF51-5794BF2E09B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD71D7-17E3-47C8-885C-21DA2EE411C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
   <si>
     <t>##var</t>
   </si>
@@ -245,6 +245,302 @@
   </si>
   <si>
     <t>ActiveSkillTypeEnum</t>
+  </si>
+  <si>
+    <t>冲浪</t>
+  </si>
+  <si>
+    <t>水柱冲击</t>
+  </si>
+  <si>
+    <t>水流喷射</t>
+  </si>
+  <si>
+    <t>吞吐</t>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+  </si>
+  <si>
+    <t>火焰冲</t>
+  </si>
+  <si>
+    <t>大地之力</t>
+  </si>
+  <si>
+    <t>吐火</t>
+  </si>
+  <si>
+    <t>光合作用</t>
+  </si>
+  <si>
+    <t>鞭打</t>
+  </si>
+  <si>
+    <t>扎根</t>
+  </si>
+  <si>
+    <t>轰隆隆隆隆</t>
+  </si>
+  <si>
+    <t>放电</t>
+  </si>
+  <si>
+    <t>电流猛扑</t>
+  </si>
+  <si>
+    <t>电闪雷鸣</t>
+  </si>
+  <si>
+    <t>迅雷</t>
+  </si>
+  <si>
+    <t>咚咚锵</t>
+  </si>
+  <si>
+    <t>闪电飞盘</t>
+  </si>
+  <si>
+    <t>喙啄</t>
+  </si>
+  <si>
+    <t>暴风</t>
+  </si>
+  <si>
+    <t>起风</t>
+  </si>
+  <si>
+    <t>狂风</t>
+  </si>
+  <si>
+    <t>毒牙</t>
+  </si>
+  <si>
+    <t>滚动</t>
+  </si>
+  <si>
+    <t>冲击</t>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>快速攻击</t>
+  </si>
+  <si>
+    <t>挥爪</t>
+  </si>
+  <si>
+    <t>操控着惊涛骇浪拍击对手。</t>
+  </si>
+  <si>
+    <t>技能优先度：1。快速地吐出水柱喷向对手。</t>
+  </si>
+  <si>
+    <t>技能优先度：2。控制周围的水流涌向对手。</t>
+  </si>
+  <si>
+    <t>吞下对手，然后再将其吐出来。有40%的几率会使对手弃置2张牌。</t>
+  </si>
+  <si>
+    <t>喷射出高温的火柱袭击敌人。</t>
+  </si>
+  <si>
+    <t>凝聚全身的火焰快速地冲向对手。将自己的速度提高10点。</t>
+  </si>
+  <si>
+    <t>从地面中爆发出灼热的岩浆袭击对手。</t>
+  </si>
+  <si>
+    <t>从体内吐出火焰席卷敌人。满血时会造成1.5倍伤害。</t>
+  </si>
+  <si>
+    <t>恢复最大生命值的20%。</t>
+  </si>
+  <si>
+    <t>舞动长长的鞭子击打对手。</t>
+  </si>
+  <si>
+    <t>将自己的根伸入地下，然后突然袭击敌人。将自己的速度降低10点。</t>
+  </si>
+  <si>
+    <t>不管不顾地向前冲击，自己也会受到造成的伤害的50%的伤害。处于草地战场时，招式威力增加30点。</t>
+  </si>
+  <si>
+    <t>将自己身体里的电流释放出去。使用后自己会变成普通属性。</t>
+  </si>
+  <si>
+    <t>身体上布满电流，猛然向敌人扑过去。用自己的防御力代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>引动雷电共同攻击。有40%的几率不会造成伤害。</t>
+  </si>
+  <si>
+    <t>技能优先度：3。如同闪电一样迅速攻击。</t>
+  </si>
+  <si>
+    <t>将电流像音乐一样有节奏地发射出来。可能会造成1~3次伤害。</t>
+  </si>
+  <si>
+    <t>闪电如同飞盘一样发射出去。将自己的速度提高10点。</t>
+  </si>
+  <si>
+    <t>用自己尖锐的喙敲击敌人的脑袋。有20%的几率造成1.5倍伤害。</t>
+  </si>
+  <si>
+    <t>利用气旋形成猛烈地风暴席卷敌人。</t>
+  </si>
+  <si>
+    <t>挂起猛烈的风。接下来3回合中，将己方选手的速度提高10点，敌方选手的速度降低10点。</t>
+  </si>
+  <si>
+    <t>空气中的气流与身体产生共鸣，进而引发强劲的风。将自己的速度降低20点。</t>
+  </si>
+  <si>
+    <t>伸出锋利的毒牙撕咬对手。</t>
+  </si>
+  <si>
+    <t>将自己的身体滚成一个球，一边喷洒毒液一边保护自己。将自己的防御力增加10点。</t>
+  </si>
+  <si>
+    <t>利用身体优势撞向对手。</t>
+  </si>
+  <si>
+    <t>技能优先度：5。在自己面前张开屏障保护自己，本回合不会受到伤害。</t>
+  </si>
+  <si>
+    <t>技能优先度：1。迅速地攻向敌人。</t>
+  </si>
+  <si>
+    <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
+  </si>
+  <si>
+    <t>发起猛攻</t>
+  </si>
+  <si>
+    <t>消耗。将己方选手的攻击力提高20点。此效果无视最大攻击力。</t>
+  </si>
+  <si>
+    <t>防守</t>
+  </si>
+  <si>
+    <t>消耗。将己方选手的防御力提高20点。此效果无视最大防御力。</t>
+  </si>
+  <si>
+    <t>加速</t>
+  </si>
+  <si>
+    <t>消耗。将己方选手的速度提高10点。此效果无视最大速度。</t>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能造成伤害变为1.5倍。</t>
+  </si>
+  <si>
+    <t>快躲开</t>
+  </si>
+  <si>
+    <t>己方选手下一次被技能攻击时有60%的几率不会受到伤害。</t>
+  </si>
+  <si>
+    <t>站起来</t>
+  </si>
+  <si>
+    <t>己方选手本回合中不会被击败，最小生命值改为1。</t>
+  </si>
+  <si>
+    <t>接触地面</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被电属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>疗伤药膏</t>
+  </si>
+  <si>
+    <t>己方选手恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>高级疗伤药膏</t>
+  </si>
+  <si>
+    <t>消耗。己方选手恢复100点生命值。</t>
+  </si>
+  <si>
+    <t>滑轮技巧</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能必定优先攻击。</t>
+  </si>
+  <si>
+    <t>重整思路</t>
+  </si>
+  <si>
+    <t>弃置所有手牌，然后抽取等量手牌。</t>
+  </si>
+  <si>
+    <t>战斗灵感</t>
+  </si>
+  <si>
+    <t>消耗。抽三张牌。</t>
+  </si>
+  <si>
+    <t>规避弱点</t>
+  </si>
+  <si>
+    <t>己方选手本回合中受到的伤害变为0.5倍。</t>
+  </si>
+  <si>
+    <t>喝茶</t>
+  </si>
+  <si>
+    <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>大口喝水</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被水属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>忍耐高温</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被火属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>身体坚硬</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被草属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>重心降低</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被风属性技能攻击时不会受到伤害。</t>
+  </si>
+  <si>
+    <t>划破皮肤</t>
+  </si>
+  <si>
+    <t>己方选手本回合中被毒属性技能攻击时不会受到伤害。己方选手失去50点生命。</t>
+  </si>
+  <si>
+    <t>仔细观察</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能造成伤害无视敌方选手的防御力和适应力。</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -285,11 +581,12 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +599,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -341,13 +644,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,7 +680,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,13 +998,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -854,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,13 +1209,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -922,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,8 +1280,8 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
+      <c r="H4" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -968,7 +1289,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -976,7 +1297,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -984,7 +1305,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -992,7 +1313,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1000,10 +1321,26 @@
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1017,13 +1354,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="70.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1047,13 +1387,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1081,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,12 +1451,544 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33">
+        <v>28</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34">
+        <v>29</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36">
+        <v>31</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37">
+        <v>32</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38">
+        <v>33</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39">
+        <v>34</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40">
+        <v>35</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41">
+        <v>36</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42">
+        <v>37</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43">
+        <v>38</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44">
+        <v>39</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46">
+        <v>41</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47">
+        <v>42</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48">
+        <v>43</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J49">
+        <v>44</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50">
+        <v>45</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51">
+        <v>46</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52">
+        <v>47</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1163,13 +2035,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1294,13 +2166,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD71D7-17E3-47C8-885C-21DA2EE411C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B690C8DC-E75F-4A50-8323-66FDD7B806FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
     <sheet name="ElementEnum" sheetId="3" r:id="rId2"/>
-    <sheet name="ActiveSkillEum" sheetId="4" r:id="rId3"/>
-    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId4"/>
-    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId5"/>
+    <sheet name="EnvironmentEnum" sheetId="8" r:id="rId3"/>
+    <sheet name="ActiveSkillEum" sheetId="4" r:id="rId4"/>
+    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId5"/>
+    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="177">
   <si>
     <t>##var</t>
   </si>
@@ -541,13 +542,47 @@
   <si>
     <t>普通</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvironmentEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>雪地</t>
+  </si>
+  <si>
+    <t>草属性选手的回合结束时恢复最大生命的2%。</t>
+  </si>
+  <si>
+    <t>每回合双方选手各损失最大生命值的2%。</t>
+  </si>
+  <si>
+    <t>水属性选手的速度增加5%。</t>
+  </si>
+  <si>
+    <t>火属性选手的攻击力增加10%。</t>
+  </si>
+  <si>
+    <t>双方选手的速度减少10%。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,8 +620,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +643,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE0E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,11 +731,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,13 +1048,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1177,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,13 +1259,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1336,7 +1386,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>165</v>
       </c>
       <c r="J11">
@@ -1353,6 +1403,175 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91AA9CF-DA49-40B1-9C53-279445F929BC}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
   <dimension ref="A1:L52"/>
   <sheetViews>
@@ -1387,13 +1606,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2000,7 +2219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -2035,13 +2254,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2130,7 +2349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0F9B5A-3908-430F-9B93-E2FA4ABC29F3}">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -2166,13 +2385,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B690C8DC-E75F-4A50-8323-66FDD7B806FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB22EF-E157-450C-96B8-55038DCA9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,38 +544,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnvironmentEnum</t>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>雪地</t>
+  </si>
+  <si>
+    <t>草属性选手的回合结束时恢复最大生命的2%。</t>
+  </si>
+  <si>
+    <t>每回合双方选手各损失最大生命值的2%。</t>
+  </si>
+  <si>
+    <t>水属性选手的速度增加5%。</t>
+  </si>
+  <si>
+    <t>火属性选手的攻击力增加10%。</t>
+  </si>
+  <si>
+    <t>双方选手的速度减少10%。</t>
+  </si>
+  <si>
+    <t>BattleEnvironmentEnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>雪地</t>
-  </si>
-  <si>
-    <t>草属性选手的回合结束时恢复最大生命的2%。</t>
-  </si>
-  <si>
-    <t>每回合双方选手各损失最大生命值的2%。</t>
-  </si>
-  <si>
-    <t>水属性选手的速度增加5%。</t>
-  </si>
-  <si>
-    <t>火属性选手的攻击力增加10%。</t>
-  </si>
-  <si>
-    <t>双方选手的速度减少10%。</t>
   </si>
 </sst>
 </file>
@@ -734,11 +734,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,13 +1048,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1259,13 +1259,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1437,13 +1437,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1503,63 +1503,63 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="10" t="s">
-        <v>170</v>
+      <c r="H7" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>175</v>
+      <c r="K7" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="10" t="s">
-        <v>171</v>
+      <c r="H8" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>176</v>
+      <c r="K8" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1606,13 +1606,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2254,13 +2254,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2385,13 +2385,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB22EF-E157-450C-96B8-55038DCA9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B5F7A-6B13-4434-9037-554C0B6D3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="210">
   <si>
     <t>##var</t>
   </si>
@@ -241,10 +241,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ActiveSkillTypeEnum</t>
   </si>
   <si>
@@ -416,24 +412,6 @@
     <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
   </si>
   <si>
-    <t>发起猛攻</t>
-  </si>
-  <si>
-    <t>消耗。将己方选手的攻击力提高20点。此效果无视最大攻击力。</t>
-  </si>
-  <si>
-    <t>防守</t>
-  </si>
-  <si>
-    <t>消耗。将己方选手的防御力提高20点。此效果无视最大防御力。</t>
-  </si>
-  <si>
-    <t>加速</t>
-  </si>
-  <si>
-    <t>消耗。将己方选手的速度提高10点。此效果无视最大速度。</t>
-  </si>
-  <si>
     <t>寻找弱点</t>
   </si>
   <si>
@@ -449,24 +427,9 @@
     <t>站起来</t>
   </si>
   <si>
-    <t>己方选手本回合中不会被击败，最小生命值改为1。</t>
-  </si>
-  <si>
-    <t>接触地面</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被电属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
     <t>疗伤药膏</t>
   </si>
   <si>
-    <t>己方选手恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>高级疗伤药膏</t>
-  </si>
-  <si>
     <t>消耗。己方选手恢复100点生命值。</t>
   </si>
   <si>
@@ -498,42 +461,6 @@
   </si>
   <si>
     <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>大口喝水</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被水属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>忍耐高温</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被火属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>身体坚硬</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被草属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>重心降低</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被风属性技能攻击时不会受到伤害。</t>
-  </si>
-  <si>
-    <t>划破皮肤</t>
-  </si>
-  <si>
-    <t>己方选手本回合中被毒属性技能攻击时不会受到伤害。己方选手失去50点生命。</t>
-  </si>
-  <si>
-    <t>仔细观察</t>
-  </si>
-  <si>
-    <t>己方选手下一次使用技能造成伤害无视敌方选手的防御力和适应力。</t>
   </si>
   <si>
     <t>None</t>
@@ -576,13 +503,186 @@
   <si>
     <t>BattleEnvironmentEnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之返照</t>
+  </si>
+  <si>
+    <t>竖起逆鳞</t>
+  </si>
+  <si>
+    <t>海洋的宝藏</t>
+  </si>
+  <si>
+    <t>击打地面</t>
+  </si>
+  <si>
+    <t>共鸣</t>
+  </si>
+  <si>
+    <t>生命绽放</t>
+  </si>
+  <si>
+    <t>种树</t>
+  </si>
+  <si>
+    <t>穷追猛打</t>
+  </si>
+  <si>
+    <t>后继有力</t>
+  </si>
+  <si>
+    <t>偷吃</t>
+  </si>
+  <si>
+    <t>吹飞</t>
+  </si>
+  <si>
+    <t>涂毒</t>
+  </si>
+  <si>
+    <t>下毒</t>
+  </si>
+  <si>
+    <t>张开大嘴</t>
+  </si>
+  <si>
+    <t>咽下去</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>永不停歇</t>
+  </si>
+  <si>
+    <t>掌握节奏</t>
+  </si>
+  <si>
+    <t>风之语</t>
+  </si>
+  <si>
+    <t>呼啸而过</t>
+  </si>
+  <si>
+    <t>晶体化</t>
+  </si>
+  <si>
+    <t>战术规划</t>
+  </si>
+  <si>
+    <t>挥洒草种</t>
+  </si>
+  <si>
+    <t>扬沙</t>
+  </si>
+  <si>
+    <t>喷水</t>
+  </si>
+  <si>
+    <t>轮转</t>
+  </si>
+  <si>
+    <t>保时捷的赞助</t>
+  </si>
+  <si>
+    <t>己方选手本回合中不会被击败，最小生命值为1。</t>
+  </si>
+  <si>
+    <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张“水流喷射”；如果牌组中没有“水流喷射”，你抽一张牌。</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
+  </si>
+  <si>
+    <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为2倍；否则你抽两张牌。</t>
+  </si>
+  <si>
+    <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加80点。</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“大地之力”；如果牌组中的技能牌数量不大于4张，向你的牌组中添加一张“大地之力”。</t>
+  </si>
+  <si>
+    <t>如果己方选手的适应力不小于50点，己方选手下一次使用技能造成的伤害变为2倍；否则恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>消耗。如果己方选手的速度小于20，己方选手的适应力增加10点，最多可以叠加到20点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>消耗。从牌组中抽取一张“迅雷”，己方选手下一次使用技能造成的伤害变为X倍，X为该技能的技能优先级。</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“喙啄”。本回合中，己方选手使用“喙啄”时，对手弃置一张手牌。</t>
+  </si>
+  <si>
+    <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于0，直接击败敌方选手。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
+  </si>
+  <si>
+    <t>给对方手牌中的三张牌“下毒”。对方使用或弃置被下毒的牌时，敌方选手受到100点伤害，此伤害无视防御力和适应力。</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吞吐”。己方选手下一次使用技能的追加效果几率改为100%。</t>
+  </si>
+  <si>
+    <t>本回合中，消耗对手弃置的牌。</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吐火”。己方选手下一次使用技能效果不好时，将伤害倍率改为1.5。</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“轰隆隆隆隆”。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“咚咚锵”。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
+  </si>
+  <si>
+    <t>本回合中，对手弃置手牌时，你抽取等量的牌。</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高20点。</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手属性发生变化时，会保留原本的属性。</t>
+  </si>
+  <si>
+    <t>消耗。从你的牌库中抽取两张指挥牌。</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为草地。</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为沙漠。</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为海洋。</t>
+  </si>
+  <si>
+    <t>消耗。选择一名其他己方选手，更换当前选手下场，并更换该选手上场。</t>
+  </si>
+  <si>
+    <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,8 +726,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +756,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +852,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1387,7 +1506,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" s="8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -1406,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91AA9CF-DA49-40B1-9C53-279445F929BC}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1503,63 +1622,63 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H7" s="9" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="9" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1573,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,310 +1797,310 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25">
         <v>21</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26">
         <v>22</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27">
         <v>23</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28">
         <v>24</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29">
         <v>25</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J30">
         <v>26</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H31" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31">
         <v>27</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1991,223 +2110,399 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="5" t="s">
-        <v>124</v>
+      <c r="H33" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="J33">
         <v>28</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="11" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="J34">
         <v>29</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="11" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="J35">
         <v>30</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>129</v>
+      <c r="K35" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="5" t="s">
-        <v>130</v>
+      <c r="H36" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="J36">
         <v>31</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>131</v>
+      <c r="K36" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="5" t="s">
-        <v>132</v>
+      <c r="H37" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>133</v>
+      <c r="K37" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="5" t="s">
-        <v>134</v>
+      <c r="H38" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="J38">
         <v>33</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>135</v>
+      <c r="K38" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="5" t="s">
-        <v>136</v>
+      <c r="H39" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="J39">
         <v>34</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>137</v>
+      <c r="K39" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="5" t="s">
-        <v>138</v>
+      <c r="H40" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="J40">
         <v>35</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>139</v>
+      <c r="K40" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="5" t="s">
-        <v>140</v>
+      <c r="H41" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="J41">
         <v>36</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>141</v>
+      <c r="K41" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="5" t="s">
-        <v>142</v>
+      <c r="H42" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="J42">
         <v>37</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>143</v>
+      <c r="K42" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="5" t="s">
-        <v>144</v>
+      <c r="H43" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="J43">
         <v>38</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>145</v>
+      <c r="K43" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="5" t="s">
-        <v>146</v>
+      <c r="H44" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="J44">
         <v>39</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>147</v>
+      <c r="K44" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="5" t="s">
-        <v>148</v>
+      <c r="H45" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="J45">
         <v>40</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>149</v>
+      <c r="K45" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="5" t="s">
-        <v>150</v>
+      <c r="H46" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="J46">
         <v>41</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>151</v>
+      <c r="K46" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="5" t="s">
-        <v>152</v>
+      <c r="H47" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="J47">
         <v>42</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>153</v>
+      <c r="K47" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="5" t="s">
-        <v>154</v>
+      <c r="H48" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="J48">
         <v>43</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>155</v>
+      <c r="K48" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="5" t="s">
-        <v>156</v>
+      <c r="H49" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="J49">
         <v>44</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>157</v>
+      <c r="K49" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="5" t="s">
-        <v>158</v>
+      <c r="H50" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="J50">
         <v>45</v>
       </c>
-      <c r="K50" s="5" t="s">
-        <v>159</v>
+      <c r="K50" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="5" t="s">
-        <v>160</v>
+      <c r="H51" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="J51">
         <v>46</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>161</v>
+      <c r="K51" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="5" t="s">
-        <v>162</v>
+      <c r="H52" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="J52">
         <v>47</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>163</v>
+      <c r="K52" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53">
+        <v>48</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54">
+        <v>49</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J56">
+        <v>51</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57">
+        <v>52</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58">
+        <v>53</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59">
+        <v>54</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60">
+        <v>55</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61">
+        <v>56</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J62">
+        <v>57</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63">
+        <v>58</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64">
+        <v>59</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J65">
+        <v>60</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66">
+        <v>61</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67">
+        <v>62</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68">
+        <v>63</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2221,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2320,7 +2615,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2334,10 +2629,18 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2657,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B5F7A-6B13-4434-9037-554C0B6D3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0AAC1F-9CA4-4B09-8133-897F8CE08421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
     <sheet name="ElementEnum" sheetId="3" r:id="rId2"/>
     <sheet name="EnvironmentEnum" sheetId="8" r:id="rId3"/>
     <sheet name="ActiveSkillEum" sheetId="4" r:id="rId4"/>
-    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId5"/>
-    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId6"/>
+    <sheet name="CardTypeEnum" sheetId="9" r:id="rId5"/>
+    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId6"/>
+    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="215">
   <si>
     <t>##var</t>
   </si>
@@ -676,6 +677,26 @@
   </si>
   <si>
     <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
+  </si>
+  <si>
+    <t>CardTypeEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -850,14 +871,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,13 +1188,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1378,13 +1399,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1556,13 +1577,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1694,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,13 +1746,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2110,398 +2131,398 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>123</v>
       </c>
       <c r="J33">
         <v>28</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>125</v>
       </c>
       <c r="J34">
         <v>29</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>127</v>
       </c>
       <c r="J35">
         <v>30</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>128</v>
       </c>
       <c r="J36">
         <v>31</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>130</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="38" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>132</v>
       </c>
       <c r="J38">
         <v>33</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>134</v>
       </c>
       <c r="J39">
         <v>34</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>136</v>
       </c>
       <c r="J40">
         <v>35</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>138</v>
       </c>
       <c r="J41">
         <v>36</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="42" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J42">
         <v>37</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>156</v>
       </c>
       <c r="J43">
         <v>38</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>157</v>
       </c>
       <c r="J44">
         <v>39</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>158</v>
       </c>
       <c r="J45">
         <v>40</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>159</v>
       </c>
       <c r="J46">
         <v>41</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="47" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>160</v>
       </c>
       <c r="J47">
         <v>42</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="48" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>161</v>
       </c>
       <c r="J48">
         <v>43</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="49" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>162</v>
       </c>
       <c r="J49">
         <v>44</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="50" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>163</v>
       </c>
       <c r="J50">
         <v>45</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>164</v>
       </c>
       <c r="J51">
         <v>46</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>165</v>
       </c>
       <c r="J52">
         <v>47</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>166</v>
       </c>
       <c r="J53">
         <v>48</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>167</v>
       </c>
       <c r="J54">
         <v>49</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>168</v>
       </c>
       <c r="J55">
         <v>50</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="56" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J56">
         <v>51</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>170</v>
       </c>
       <c r="J57">
         <v>52</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="58" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>171</v>
       </c>
       <c r="J58">
         <v>53</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>172</v>
       </c>
       <c r="J59">
         <v>54</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>173</v>
       </c>
       <c r="J60">
         <v>55</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="10" t="s">
         <v>174</v>
       </c>
       <c r="J61">
         <v>56</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="62" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>175</v>
       </c>
       <c r="J62">
         <v>57</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="63" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>176</v>
       </c>
       <c r="J63">
         <v>58</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="64" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>177</v>
       </c>
       <c r="J64">
         <v>59</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="65" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="10" t="s">
         <v>178</v>
       </c>
       <c r="J65">
         <v>60</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="66" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J66">
         <v>61</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="67" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>180</v>
       </c>
       <c r="J67">
         <v>62</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="68" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="11" t="s">
         <v>181</v>
       </c>
       <c r="J68">
         <v>63</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="11" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2515,6 +2536,150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B278F-90F0-4A43-AA18-00BD23D3F929}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -2549,13 +2714,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2652,7 +2817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0F9B5A-3908-430F-9B93-E2FA4ABC29F3}">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -2688,13 +2853,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0AAC1F-9CA4-4B09-8133-897F8CE08421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B54D5-A033-4DC7-A3BD-C7951790D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="216">
   <si>
     <t>##var</t>
   </si>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>虚无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -744,6 +748,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -751,6 +756,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -842,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91AA9CF-DA49-40B1-9C53-279445F929BC}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1648,57 +1657,65 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>142</v>
+      <c r="H4" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="9" t="s">
-        <v>145</v>
+      <c r="H7" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>150</v>
+      <c r="K7" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2539,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B278F-90F0-4A43-AA18-00BD23D3F929}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B54D5-A033-4DC7-A3BD-C7951790D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004CCA8-095D-4150-8870-4E6FFE5100D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
     <sheet name="ElementEnum" sheetId="3" r:id="rId2"/>
     <sheet name="EnvironmentEnum" sheetId="8" r:id="rId3"/>
     <sheet name="ActiveSkillEum" sheetId="4" r:id="rId4"/>
-    <sheet name="CardTypeEnum" sheetId="9" r:id="rId5"/>
-    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId6"/>
-    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId7"/>
+    <sheet name="BattleBuffEnum" sheetId="10" r:id="rId5"/>
+    <sheet name="CardTypeEnum" sheetId="9" r:id="rId6"/>
+    <sheet name="ActiveSkillTypeEnum" sheetId="7" r:id="rId7"/>
+    <sheet name="PassiveSkillEnum" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
   <si>
     <t>##var</t>
   </si>
@@ -434,9 +435,6 @@
     <t>消耗。己方选手恢复100点生命值。</t>
   </si>
   <si>
-    <t>滑轮技巧</t>
-  </si>
-  <si>
     <t>己方选手下一次使用技能必定优先攻击。</t>
   </si>
   <si>
@@ -701,6 +699,49 @@
   <si>
     <t>None</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleBuffEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小鬼归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快躲开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规避弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮滑技巧</t>
+  </si>
+  <si>
+    <t>轮滑技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -761,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +833,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -842,13 +889,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,10 +943,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,13 +1263,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1408,13 +1474,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1480,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1536,7 +1602,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -1555,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91AA9CF-DA49-40B1-9C53-279445F929BC}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -1586,13 +1652,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1652,13 +1718,13 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>215</v>
+      <c r="H4" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1666,57 +1732,57 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1732,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,13 +1829,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2177,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2192,355 +2258,355 @@
       </c>
     </row>
     <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="10" t="s">
-        <v>130</v>
+      <c r="H37" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H38" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J38">
         <v>33</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H39" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39">
         <v>34</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H40" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J40">
         <v>35</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H41" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J41">
         <v>36</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H42" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42">
         <v>37</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H43" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J43">
         <v>38</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H44" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J44">
         <v>39</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H45" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J45">
         <v>40</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H46" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J46">
         <v>41</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H47" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J47">
         <v>42</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J48">
         <v>43</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H49" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J49">
         <v>44</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H50" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J50">
         <v>45</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H51" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J51">
         <v>46</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H52" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J52">
         <v>47</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H53" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J53">
         <v>48</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H54" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J54">
         <v>49</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H55" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J55">
         <v>50</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H56" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J56">
         <v>51</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H57" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J57">
         <v>52</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H58" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J58">
         <v>53</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H59" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J59">
         <v>54</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H60" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J60">
         <v>55</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H61" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J61">
         <v>56</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H62" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J62">
         <v>57</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H63" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J63">
         <v>58</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H64" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J64">
         <v>59</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H65" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J65">
         <v>60</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H66" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J66">
         <v>61</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H67" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J67">
         <v>62</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H68" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J68">
         <v>63</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2553,6 +2619,171 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F784E7D-8D69-4C08-BC59-1552CBD9BB08}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B278F-90F0-4A43-AA18-00BD23D3F929}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -2587,13 +2818,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2653,13 +2884,13 @@
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2668,7 +2899,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2677,13 +2908,13 @@
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -2696,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -2731,13 +2962,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2811,7 +3042,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2819,7 +3050,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -2834,7 +3065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0F9B5A-3908-430F-9B93-E2FA4ABC29F3}">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -2870,13 +3101,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004CCA8-095D-4150-8870-4E6FFE5100D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EAD384-05EE-4AF3-8197-0649AD0261D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="227">
   <si>
     <t>##var</t>
   </si>
@@ -717,10 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>起风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寻找弱点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +737,14 @@
   </si>
   <si>
     <t>轮滑技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +805,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -840,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -902,13 +912,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,15 +971,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1263,13 +1289,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1474,13 +1500,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1652,13 +1678,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1798,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1829,13 +1855,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2258,8 +2284,8 @@
       </c>
     </row>
     <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="15" t="s">
-        <v>225</v>
+      <c r="H37" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="J37">
         <v>32</v>
@@ -2620,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F784E7D-8D69-4C08-BC59-1552CBD9BB08}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2650,13 +2676,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2745,33 +2771,43 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="14" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10" s="14" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="14" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="14" t="s">
-        <v>224</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2818,13 +2854,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2962,13 +2998,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3101,13 +3137,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EAD384-05EE-4AF3-8197-0649AD0261D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -31,6 +25,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="219">
   <si>
     <t>##var</t>
   </si>
@@ -97,8 +93,49 @@
     <t>注释</t>
   </si>
   <si>
+    <t>HuluEnum</t>
+  </si>
+  <si>
+    <t>怒潮龙</t>
+  </si>
+  <si>
+    <t>烈火领主</t>
+  </si>
+  <si>
+    <t>枯木妖</t>
+  </si>
+  <si>
+    <t>噼啪小将</t>
+  </si>
+  <si>
+    <t>疾风之翼</t>
+  </si>
+  <si>
+    <t>毒宝宝</t>
+  </si>
+  <si>
+    <t>一口鲸</t>
+  </si>
+  <si>
+    <t>吞火熊</t>
+  </si>
+  <si>
+    <t>推土牛</t>
+  </si>
+  <si>
+    <t>电电鼠</t>
+  </si>
+  <si>
+    <t>斯托姆</t>
+  </si>
+  <si>
+    <t>小闪光</t>
+  </si>
+  <si>
     <t>ElementEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>水</t>
@@ -119,12 +156,475 @@
     <t>毒</t>
   </si>
   <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>BattleEnvironmentEnum</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>草属性选手的回合结束时恢复最大生命的2%。</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>每回合双方选手各损失最大生命值的2%。</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>水属性选手的速度增加5%。</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>火属性选手的攻击力增加10%。</t>
+  </si>
+  <si>
+    <t>雪地</t>
+  </si>
+  <si>
+    <t>双方选手的速度减少10%。</t>
+  </si>
+  <si>
     <t>ActiveSkillEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲浪</t>
+  </si>
+  <si>
+    <t>操控着惊涛骇浪拍击对手。</t>
+  </si>
+  <si>
+    <t>水柱冲击</t>
+  </si>
+  <si>
+    <t>技能优先度：1。快速地吐出水柱喷向对手。</t>
+  </si>
+  <si>
+    <t>水流喷射</t>
+  </si>
+  <si>
+    <t>技能优先度：2。控制周围的水流涌向对手。</t>
+  </si>
+  <si>
+    <t>吞吐</t>
+  </si>
+  <si>
+    <t>吞下对手，然后再将其吐出来。有40%的几率会使对手弃置2张牌。</t>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+  </si>
+  <si>
+    <t>喷射出高温的火柱袭击敌人。</t>
+  </si>
+  <si>
+    <t>火焰冲</t>
+  </si>
+  <si>
+    <t>凝聚全身的火焰快速地冲向对手。将自己的速度提高10点。</t>
+  </si>
+  <si>
+    <t>大地之力</t>
+  </si>
+  <si>
+    <t>从地面中爆发出灼热的岩浆袭击对手。</t>
+  </si>
+  <si>
+    <t>吐火</t>
+  </si>
+  <si>
+    <t>从体内吐出火焰席卷敌人。满血时会造成1.5倍伤害。</t>
+  </si>
+  <si>
+    <t>光合作用</t>
+  </si>
+  <si>
+    <t>恢复最大生命值的20%。</t>
+  </si>
+  <si>
+    <t>鞭打</t>
+  </si>
+  <si>
+    <t>舞动长长的鞭子击打对手。</t>
+  </si>
+  <si>
+    <t>扎根</t>
+  </si>
+  <si>
+    <t>将自己的根伸入地下，然后突然袭击敌人。将自己的速度降低10点。</t>
+  </si>
+  <si>
+    <t>轰隆隆隆隆</t>
+  </si>
+  <si>
+    <t>不管不顾地向前冲击，自己也会受到造成的伤害的50%的伤害。处于草地战场时，招式威力增加30点。</t>
+  </si>
+  <si>
+    <t>放电</t>
+  </si>
+  <si>
+    <t>将自己身体里的电流释放出去。使用后自己会变成普通属性。</t>
+  </si>
+  <si>
+    <t>电流猛扑</t>
+  </si>
+  <si>
+    <t>身体上布满电流，猛然向敌人扑过去。用自己的防御力代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>电闪雷鸣</t>
+  </si>
+  <si>
+    <t>引动雷电共同攻击。有40%的几率不会造成伤害。</t>
+  </si>
+  <si>
+    <t>迅雷</t>
+  </si>
+  <si>
+    <t>技能优先度：3。如同闪电一样迅速攻击。</t>
+  </si>
+  <si>
+    <t>咚咚锵</t>
+  </si>
+  <si>
+    <t>将电流像音乐一样有节奏地发射出来。可能会造成1~3次伤害。</t>
+  </si>
+  <si>
+    <t>闪电飞盘</t>
+  </si>
+  <si>
+    <t>闪电如同飞盘一样发射出去。将自己的速度提高10点。</t>
+  </si>
+  <si>
+    <t>喙啄</t>
+  </si>
+  <si>
+    <t>用自己尖锐的喙敲击敌人的脑袋。有20%的几率造成1.5倍伤害。</t>
+  </si>
+  <si>
+    <t>暴风</t>
+  </si>
+  <si>
+    <t>利用气旋形成猛烈地风暴席卷敌人。</t>
+  </si>
+  <si>
+    <t>起风</t>
+  </si>
+  <si>
+    <t>挂起猛烈的风。接下来3回合中，将己方选手的速度提高10点，敌方选手的速度降低10点。</t>
+  </si>
+  <si>
+    <t>狂风</t>
+  </si>
+  <si>
+    <t>空气中的气流与身体产生共鸣，进而引发强劲的风。将自己的速度降低20点。</t>
+  </si>
+  <si>
+    <t>毒牙</t>
+  </si>
+  <si>
+    <t>伸出锋利的毒牙撕咬对手。</t>
+  </si>
+  <si>
+    <t>滚动</t>
+  </si>
+  <si>
+    <t>将自己的身体滚成一个球，一边喷洒毒液一边保护自己。将自己的防御力增加10点。</t>
+  </si>
+  <si>
+    <t>冲击</t>
+  </si>
+  <si>
+    <t>利用身体优势撞向对手。</t>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>技能优先度：5。在自己面前张开屏障保护自己，本回合不会受到伤害。</t>
+  </si>
+  <si>
+    <t>快速攻击</t>
+  </si>
+  <si>
+    <t>技能优先度：1。迅速地攻向敌人。</t>
+  </si>
+  <si>
+    <t>挥爪</t>
+  </si>
+  <si>
+    <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
+  </si>
+  <si>
+    <t>寻找弱点</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能造成伤害变为1.5倍。</t>
+  </si>
+  <si>
+    <t>快躲开</t>
+  </si>
+  <si>
+    <t>己方选手下一次被技能攻击时有60%的几率不会受到伤害。</t>
+  </si>
+  <si>
+    <t>站起来</t>
+  </si>
+  <si>
+    <t>己方选手本回合中不会被击败，最小生命值为1。</t>
+  </si>
+  <si>
+    <t>疗伤药膏</t>
+  </si>
+  <si>
+    <t>消耗。己方选手恢复100点生命值。</t>
+  </si>
+  <si>
+    <t>轮滑技巧</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能必定优先攻击。</t>
+  </si>
+  <si>
+    <t>重整思路</t>
+  </si>
+  <si>
+    <t>弃置所有手牌，然后抽取等量手牌。</t>
+  </si>
+  <si>
+    <t>战斗灵感</t>
+  </si>
+  <si>
+    <t>消耗。抽三张牌。</t>
+  </si>
+  <si>
+    <t>规避弱点</t>
+  </si>
+  <si>
+    <t>己方选手本回合中受到的伤害变为0.5倍。</t>
+  </si>
+  <si>
+    <t>喝茶</t>
+  </si>
+  <si>
+    <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>龙之返照</t>
+  </si>
+  <si>
+    <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张“水流喷射”；如果牌组中没有“水流喷射”，你抽一张牌。</t>
+  </si>
+  <si>
+    <t>竖起逆鳞</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
+  </si>
+  <si>
+    <t>海洋的宝藏</t>
+  </si>
+  <si>
+    <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为2倍；否则你抽两张牌。</t>
+  </si>
+  <si>
+    <t>击打地面</t>
+  </si>
+  <si>
+    <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加80点。</t>
+  </si>
+  <si>
+    <t>共鸣</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“大地之力”；如果牌组中的技能牌数量不大于4张，向你的牌组中添加一张“大地之力”。</t>
+  </si>
+  <si>
+    <t>生命绽放</t>
+  </si>
+  <si>
+    <t>如果己方选手的适应力不小于50点，己方选手下一次使用技能造成的伤害变为2倍；否则恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>种树</t>
+  </si>
+  <si>
+    <t>消耗。如果己方选手的速度小于20，己方选手的适应力增加10点，最多可以叠加到20点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>穷追猛打</t>
+  </si>
+  <si>
+    <t>消耗。从牌组中抽取一张“迅雷”，己方选手下一次使用技能造成的伤害变为X倍，X为该技能的技能优先级。</t>
+  </si>
+  <si>
+    <t>后继有力</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
+  </si>
+  <si>
+    <t>偷吃</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“喙啄”。本回合中，己方选手使用“喙啄”时，对手弃置一张手牌。</t>
+  </si>
+  <si>
+    <t>吹飞</t>
+  </si>
+  <si>
+    <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于0，直接击败敌方选手。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>涂毒</t>
+  </si>
+  <si>
+    <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
+  </si>
+  <si>
+    <t>下毒</t>
+  </si>
+  <si>
+    <t>给对方手牌中的三张牌“下毒”。对方使用或弃置被下毒的牌时，敌方选手受到100点伤害，此伤害无视防御力和适应力。</t>
+  </si>
+  <si>
+    <t>张开大嘴</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吞吐”。己方选手下一次使用技能的追加效果几率改为100%。</t>
+  </si>
+  <si>
+    <t>咽下去</t>
+  </si>
+  <si>
+    <t>本回合中，消耗对手弃置的牌。</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吐火”。己方选手下一次使用技能效果不好时，将伤害倍率改为1.5。</t>
+  </si>
+  <si>
+    <t>永不停歇</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“轰隆隆隆隆”。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>掌握节奏</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“咚咚锵”。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
+  </si>
+  <si>
+    <t>风之语</t>
+  </si>
+  <si>
+    <t>本回合中，对手弃置手牌时，你抽取等量的牌。</t>
+  </si>
+  <si>
+    <t>呼啸而过</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高20点。</t>
+  </si>
+  <si>
+    <t>晶体化</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手属性发生变化时，会保留原本的属性。</t>
+  </si>
+  <si>
+    <t>战术规划</t>
+  </si>
+  <si>
+    <t>消耗。从你的牌库中抽取两张指挥牌。</t>
+  </si>
+  <si>
+    <t>挥洒草种</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为草地。</t>
+  </si>
+  <si>
+    <t>扬沙</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为沙漠。</t>
+  </si>
+  <si>
+    <t>喷水</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为海洋。</t>
+  </si>
+  <si>
+    <t>轮转</t>
+  </si>
+  <si>
+    <t>消耗。选择一名其他己方选手，更换当前选手下场，并更换该选手上场。</t>
+  </si>
+  <si>
+    <t>保时捷的赞助</t>
+  </si>
+  <si>
+    <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
+  </si>
+  <si>
+    <t>BattleBuffEnum</t>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+  </si>
+  <si>
+    <t>胆小鬼归来</t>
+  </si>
+  <si>
+    <t>顺风</t>
+  </si>
+  <si>
+    <t>逆风</t>
+  </si>
+  <si>
+    <t>阻止属性变化</t>
+  </si>
+  <si>
+    <t>CardTypeEnum</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>虚无</t>
+  </si>
+  <si>
+    <t>ActiveSkillTypeEnum</t>
+  </si>
+  <si>
+    <t>指挥</t>
+  </si>
+  <si>
+    <t>伤害技能</t>
+  </si>
+  <si>
+    <t>变化技能</t>
   </si>
   <si>
     <t>PassiveSkillEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怒火喷发</t>
@@ -151,9 +651,6 @@
     <t>噼啪小将使用电属性技能时，攻击力会增加10点，最多可以叠加到30点，并且不计入噼啪小将的最大攻击力。</t>
   </si>
   <si>
-    <t>顺风</t>
-  </si>
-  <si>
     <t>疾风之翼使用风属性技能时，必定优先行动。</t>
   </si>
   <si>
@@ -181,9 +678,6 @@
     <t>推土牛处于草地战场时，速度变为原来的2倍，并且此效果无视推土牛的最大速度。</t>
   </si>
   <si>
-    <t>胆小鬼</t>
-  </si>
-  <si>
     <t>电电鼠的生命值第一次不大于50%时，会更换选手；然后电电鼠下一次上场时，所有数值变为原来的1.5倍。</t>
   </si>
   <si>
@@ -197,562 +691,19 @@
   </si>
   <si>
     <t>小闪电第一次使用技能时，会将自身的属性变化为该技能的属性。</t>
-  </si>
-  <si>
-    <t>HuluEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒潮龙</t>
-  </si>
-  <si>
-    <t>烈火领主</t>
-  </si>
-  <si>
-    <t>枯木妖</t>
-  </si>
-  <si>
-    <t>噼啪小将</t>
-  </si>
-  <si>
-    <t>疾风之翼</t>
-  </si>
-  <si>
-    <t>毒宝宝</t>
-  </si>
-  <si>
-    <t>一口鲸</t>
-  </si>
-  <si>
-    <t>吞火熊</t>
-  </si>
-  <si>
-    <t>推土牛</t>
-  </si>
-  <si>
-    <t>电电鼠</t>
-  </si>
-  <si>
-    <t>斯托姆</t>
-  </si>
-  <si>
-    <t>小闪光</t>
-  </si>
-  <si>
-    <t>指挥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActiveSkillTypeEnum</t>
-  </si>
-  <si>
-    <t>冲浪</t>
-  </si>
-  <si>
-    <t>水柱冲击</t>
-  </si>
-  <si>
-    <t>水流喷射</t>
-  </si>
-  <si>
-    <t>吞吐</t>
-  </si>
-  <si>
-    <t>喷射火焰</t>
-  </si>
-  <si>
-    <t>火焰冲</t>
-  </si>
-  <si>
-    <t>大地之力</t>
-  </si>
-  <si>
-    <t>吐火</t>
-  </si>
-  <si>
-    <t>光合作用</t>
-  </si>
-  <si>
-    <t>鞭打</t>
-  </si>
-  <si>
-    <t>扎根</t>
-  </si>
-  <si>
-    <t>轰隆隆隆隆</t>
-  </si>
-  <si>
-    <t>放电</t>
-  </si>
-  <si>
-    <t>电流猛扑</t>
-  </si>
-  <si>
-    <t>电闪雷鸣</t>
-  </si>
-  <si>
-    <t>迅雷</t>
-  </si>
-  <si>
-    <t>咚咚锵</t>
-  </si>
-  <si>
-    <t>闪电飞盘</t>
-  </si>
-  <si>
-    <t>喙啄</t>
-  </si>
-  <si>
-    <t>暴风</t>
-  </si>
-  <si>
-    <t>起风</t>
-  </si>
-  <si>
-    <t>狂风</t>
-  </si>
-  <si>
-    <t>毒牙</t>
-  </si>
-  <si>
-    <t>滚动</t>
-  </si>
-  <si>
-    <t>冲击</t>
-  </si>
-  <si>
-    <t>守护</t>
-  </si>
-  <si>
-    <t>快速攻击</t>
-  </si>
-  <si>
-    <t>挥爪</t>
-  </si>
-  <si>
-    <t>操控着惊涛骇浪拍击对手。</t>
-  </si>
-  <si>
-    <t>技能优先度：1。快速地吐出水柱喷向对手。</t>
-  </si>
-  <si>
-    <t>技能优先度：2。控制周围的水流涌向对手。</t>
-  </si>
-  <si>
-    <t>吞下对手，然后再将其吐出来。有40%的几率会使对手弃置2张牌。</t>
-  </si>
-  <si>
-    <t>喷射出高温的火柱袭击敌人。</t>
-  </si>
-  <si>
-    <t>凝聚全身的火焰快速地冲向对手。将自己的速度提高10点。</t>
-  </si>
-  <si>
-    <t>从地面中爆发出灼热的岩浆袭击对手。</t>
-  </si>
-  <si>
-    <t>从体内吐出火焰席卷敌人。满血时会造成1.5倍伤害。</t>
-  </si>
-  <si>
-    <t>恢复最大生命值的20%。</t>
-  </si>
-  <si>
-    <t>舞动长长的鞭子击打对手。</t>
-  </si>
-  <si>
-    <t>将自己的根伸入地下，然后突然袭击敌人。将自己的速度降低10点。</t>
-  </si>
-  <si>
-    <t>不管不顾地向前冲击，自己也会受到造成的伤害的50%的伤害。处于草地战场时，招式威力增加30点。</t>
-  </si>
-  <si>
-    <t>将自己身体里的电流释放出去。使用后自己会变成普通属性。</t>
-  </si>
-  <si>
-    <t>身体上布满电流，猛然向敌人扑过去。用自己的防御力代替攻击力进行伤害计算。</t>
-  </si>
-  <si>
-    <t>引动雷电共同攻击。有40%的几率不会造成伤害。</t>
-  </si>
-  <si>
-    <t>技能优先度：3。如同闪电一样迅速攻击。</t>
-  </si>
-  <si>
-    <t>将电流像音乐一样有节奏地发射出来。可能会造成1~3次伤害。</t>
-  </si>
-  <si>
-    <t>闪电如同飞盘一样发射出去。将自己的速度提高10点。</t>
-  </si>
-  <si>
-    <t>用自己尖锐的喙敲击敌人的脑袋。有20%的几率造成1.5倍伤害。</t>
-  </si>
-  <si>
-    <t>利用气旋形成猛烈地风暴席卷敌人。</t>
-  </si>
-  <si>
-    <t>挂起猛烈的风。接下来3回合中，将己方选手的速度提高10点，敌方选手的速度降低10点。</t>
-  </si>
-  <si>
-    <t>空气中的气流与身体产生共鸣，进而引发强劲的风。将自己的速度降低20点。</t>
-  </si>
-  <si>
-    <t>伸出锋利的毒牙撕咬对手。</t>
-  </si>
-  <si>
-    <t>将自己的身体滚成一个球，一边喷洒毒液一边保护自己。将自己的防御力增加10点。</t>
-  </si>
-  <si>
-    <t>利用身体优势撞向对手。</t>
-  </si>
-  <si>
-    <t>技能优先度：5。在自己面前张开屏障保护自己，本回合不会受到伤害。</t>
-  </si>
-  <si>
-    <t>技能优先度：1。迅速地攻向敌人。</t>
-  </si>
-  <si>
-    <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
-  </si>
-  <si>
-    <t>寻找弱点</t>
-  </si>
-  <si>
-    <t>己方选手下一次使用技能造成伤害变为1.5倍。</t>
-  </si>
-  <si>
-    <t>快躲开</t>
-  </si>
-  <si>
-    <t>己方选手下一次被技能攻击时有60%的几率不会受到伤害。</t>
-  </si>
-  <si>
-    <t>站起来</t>
-  </si>
-  <si>
-    <t>疗伤药膏</t>
-  </si>
-  <si>
-    <t>消耗。己方选手恢复100点生命值。</t>
-  </si>
-  <si>
-    <t>己方选手下一次使用技能必定优先攻击。</t>
-  </si>
-  <si>
-    <t>重整思路</t>
-  </si>
-  <si>
-    <t>弃置所有手牌，然后抽取等量手牌。</t>
-  </si>
-  <si>
-    <t>战斗灵感</t>
-  </si>
-  <si>
-    <t>消耗。抽三张牌。</t>
-  </si>
-  <si>
-    <t>规避弱点</t>
-  </si>
-  <si>
-    <t>己方选手本回合中受到的伤害变为0.5倍。</t>
-  </si>
-  <si>
-    <t>喝茶</t>
-  </si>
-  <si>
-    <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>雪地</t>
-  </si>
-  <si>
-    <t>草属性选手的回合结束时恢复最大生命的2%。</t>
-  </si>
-  <si>
-    <t>每回合双方选手各损失最大生命值的2%。</t>
-  </si>
-  <si>
-    <t>水属性选手的速度增加5%。</t>
-  </si>
-  <si>
-    <t>火属性选手的攻击力增加10%。</t>
-  </si>
-  <si>
-    <t>双方选手的速度减少10%。</t>
-  </si>
-  <si>
-    <t>BattleEnvironmentEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变化技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之返照</t>
-  </si>
-  <si>
-    <t>竖起逆鳞</t>
-  </si>
-  <si>
-    <t>海洋的宝藏</t>
-  </si>
-  <si>
-    <t>击打地面</t>
-  </si>
-  <si>
-    <t>共鸣</t>
-  </si>
-  <si>
-    <t>生命绽放</t>
-  </si>
-  <si>
-    <t>种树</t>
-  </si>
-  <si>
-    <t>穷追猛打</t>
-  </si>
-  <si>
-    <t>后继有力</t>
-  </si>
-  <si>
-    <t>偷吃</t>
-  </si>
-  <si>
-    <t>吹飞</t>
-  </si>
-  <si>
-    <t>涂毒</t>
-  </si>
-  <si>
-    <t>下毒</t>
-  </si>
-  <si>
-    <t>张开大嘴</t>
-  </si>
-  <si>
-    <t>咽下去</t>
-  </si>
-  <si>
-    <t>压制</t>
-  </si>
-  <si>
-    <t>永不停歇</t>
-  </si>
-  <si>
-    <t>掌握节奏</t>
-  </si>
-  <si>
-    <t>风之语</t>
-  </si>
-  <si>
-    <t>呼啸而过</t>
-  </si>
-  <si>
-    <t>晶体化</t>
-  </si>
-  <si>
-    <t>战术规划</t>
-  </si>
-  <si>
-    <t>挥洒草种</t>
-  </si>
-  <si>
-    <t>扬沙</t>
-  </si>
-  <si>
-    <t>喷水</t>
-  </si>
-  <si>
-    <t>轮转</t>
-  </si>
-  <si>
-    <t>保时捷的赞助</t>
-  </si>
-  <si>
-    <t>己方选手本回合中不会被击败，最小生命值为1。</t>
-  </si>
-  <si>
-    <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张“水流喷射”；如果牌组中没有“水流喷射”，你抽一张牌。</t>
-  </si>
-  <si>
-    <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
-  </si>
-  <si>
-    <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为2倍；否则你抽两张牌。</t>
-  </si>
-  <si>
-    <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加80点。</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“大地之力”；如果牌组中的技能牌数量不大于4张，向你的牌组中添加一张“大地之力”。</t>
-  </si>
-  <si>
-    <t>如果己方选手的适应力不小于50点，己方选手下一次使用技能造成的伤害变为2倍；否则恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>消耗。如果己方选手的速度小于20，己方选手的适应力增加10点，最多可以叠加到20点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
-  </si>
-  <si>
-    <t>消耗。从牌组中抽取一张“迅雷”，己方选手下一次使用技能造成的伤害变为X倍，X为该技能的技能优先级。</t>
-  </si>
-  <si>
-    <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“喙啄”。本回合中，己方选手使用“喙啄”时，对手弃置一张手牌。</t>
-  </si>
-  <si>
-    <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于0，直接击败敌方选手。然后结束当前回合。</t>
-  </si>
-  <si>
-    <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
-  </si>
-  <si>
-    <t>给对方手牌中的三张牌“下毒”。对方使用或弃置被下毒的牌时，敌方选手受到100点伤害，此伤害无视防御力和适应力。</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“吞吐”。己方选手下一次使用技能的追加效果几率改为100%。</t>
-  </si>
-  <si>
-    <t>本回合中，消耗对手弃置的牌。</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“吐火”。己方选手下一次使用技能效果不好时，将伤害倍率改为1.5。</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“轰隆隆隆隆”。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“咚咚锵”。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
-  </si>
-  <si>
-    <t>本回合中，对手弃置手牌时，你抽取等量的牌。</t>
-  </si>
-  <si>
-    <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高20点。</t>
-  </si>
-  <si>
-    <t>消耗。本回合中，己方选手属性发生变化时，会保留原本的属性。</t>
-  </si>
-  <si>
-    <t>消耗。从你的牌库中抽取两张指挥牌。</t>
-  </si>
-  <si>
-    <t>消耗。将本局对战的战场改为草地。</t>
-  </si>
-  <si>
-    <t>消耗。将本局对战的战场改为沙漠。</t>
-  </si>
-  <si>
-    <t>消耗。将本局对战的战场改为海洋。</t>
-  </si>
-  <si>
-    <t>消耗。选择一名其他己方选手，更换当前选手下场，并更换该选手上场。</t>
-  </si>
-  <si>
-    <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
-  </si>
-  <si>
-    <t>CardTypeEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleBuffEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胆小鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胆小鬼归来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找弱点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快躲开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规避弱点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮滑技巧</t>
-  </si>
-  <si>
-    <t>轮滑技巧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,17 +712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -779,40 +722,160 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,13 +884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79964598529007846"/>
+        <fgColor theme="9" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,18 +914,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -889,14 +1138,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
+      <left style="thin">
+        <color theme="2"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
+      <right style="thin">
+        <color theme="2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -913,23 +1166,261 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="2"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color theme="2"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color theme="2"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color theme="2"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,56 +1434,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1250,24 +1783,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E753B2-9E0B-4797-B836-2B00659615A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,15 +1822,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="219.75" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,103 +1886,103 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="4" t="s">
-        <v>54</v>
+    <row r="5" ht="17.55" spans="8:10">
+      <c r="H5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="4" t="s">
-        <v>55</v>
+    <row r="6" ht="17.55" spans="8:10">
+      <c r="H6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="4" t="s">
-        <v>56</v>
+    <row r="7" ht="17.55" spans="8:10">
+      <c r="H7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="4" t="s">
-        <v>57</v>
+    <row r="8" ht="17.55" spans="8:10">
+      <c r="H8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
-        <v>58</v>
+    <row r="9" ht="17.55" spans="8:10">
+      <c r="H9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:10">
       <c r="H10" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:10">
       <c r="H11" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:10">
       <c r="H12" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:10">
       <c r="H13" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:10">
       <c r="H14" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:10">
       <c r="H15" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1459,26 +1992,27 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L11"/>
+      <selection activeCell="A1" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,15 +2034,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" ht="219" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1564,71 +2098,71 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="4" t="s">
-        <v>20</v>
+    <row r="5" ht="17.55" spans="8:10">
+      <c r="H5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="4" t="s">
-        <v>21</v>
+    <row r="6" ht="17.55" spans="8:10">
+      <c r="H6" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="4" t="s">
-        <v>22</v>
+    <row r="7" ht="17.55" spans="8:10">
+      <c r="H7" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="4" t="s">
-        <v>23</v>
+    <row r="8" ht="17.55" spans="8:10">
+      <c r="H8" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
-        <v>24</v>
+    <row r="9" ht="17.55" spans="8:10">
+      <c r="H9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="4" t="s">
-        <v>25</v>
+    <row r="10" ht="17.55" spans="8:10">
+      <c r="H10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="8" t="s">
-        <v>140</v>
+    <row r="11" spans="8:10">
+      <c r="H11" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -1638,25 +2172,26 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91AA9CF-DA49-40B1-9C53-279445F929BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,15 +2213,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +2247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" ht="219" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1742,98 +2277,99 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>214</v>
+      <c r="H4" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="9" t="s">
-        <v>144</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="17.55" spans="8:11">
+      <c r="H8" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="9" t="s">
-        <v>145</v>
+      <c r="K8" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" spans="8:11">
+      <c r="H9" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>150</v>
+      <c r="K9" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E9A1-4411-434F-B7AC-777F44410E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="11" max="11" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,15 +2391,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="219.75" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1919,167 +2455,167 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" ht="17.55" spans="8:11">
       <c r="H8" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="8:11">
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" spans="8:11">
       <c r="H16" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" spans="8:11">
       <c r="H17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="17.55" spans="8:11">
       <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
@@ -2087,574 +2623,575 @@
         <v>14</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="17.55" spans="8:11">
       <c r="H19" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="17.55" spans="8:11">
       <c r="H20" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="17.55" spans="8:11">
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" ht="17.55" spans="8:11">
       <c r="H22" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" ht="17.55" spans="8:11">
       <c r="H23" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" ht="17.55" spans="8:11">
       <c r="H24" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" ht="17.55" spans="8:11">
       <c r="H25" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J25">
         <v>21</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" ht="17.55" spans="8:11">
       <c r="H26" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J26">
         <v>22</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" ht="17.55" spans="8:11">
       <c r="H27" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J27">
         <v>23</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="17.55" spans="8:11">
       <c r="H28" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J28">
         <v>24</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" ht="17.55" spans="8:11">
       <c r="H29" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J29">
         <v>25</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" ht="17.55" spans="8:11">
       <c r="H30" s="5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J30">
         <v>26</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" ht="17.55" spans="8:11">
       <c r="H31" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J31">
         <v>27</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="10" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" ht="17.55" spans="8:11">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" ht="17.55" spans="8:11">
+      <c r="H33" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="J33">
         <v>28</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="10" t="s">
-        <v>125</v>
+      <c r="K33" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" ht="17.55" spans="8:11">
+      <c r="H34" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="J34">
         <v>29</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="10" t="s">
-        <v>127</v>
+      <c r="K34" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" ht="17.55" spans="8:11">
+      <c r="H35" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="J35">
         <v>30</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="10" t="s">
-        <v>128</v>
+      <c r="K35" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" ht="17.55" spans="8:11">
+      <c r="H36" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="J36">
         <v>31</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="13" t="s">
-        <v>224</v>
+      <c r="K36" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" ht="17.55" spans="8:11">
+      <c r="H37" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="10" t="s">
-        <v>131</v>
+      <c r="K37" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="17.55" spans="8:11">
+      <c r="H38" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="J38">
         <v>33</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="10" t="s">
-        <v>133</v>
+      <c r="K38" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" ht="17.55" spans="8:11">
+      <c r="H39" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="J39">
         <v>34</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="10" t="s">
-        <v>135</v>
+      <c r="K39" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" ht="17.55" spans="8:11">
+      <c r="H40" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="J40">
         <v>35</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="10" t="s">
-        <v>137</v>
+      <c r="K40" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" ht="17.55" spans="8:11">
+      <c r="H41" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="J41">
         <v>36</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="10" t="s">
-        <v>154</v>
+      <c r="K41" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" ht="17.55" spans="8:11">
+      <c r="H42" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="J42">
         <v>37</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="10" t="s">
-        <v>155</v>
+      <c r="K42" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" ht="17.55" spans="8:11">
+      <c r="H43" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="J43">
         <v>38</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="10" t="s">
-        <v>156</v>
+      <c r="K43" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" ht="17.55" spans="8:11">
+      <c r="H44" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="J44">
         <v>39</v>
       </c>
-      <c r="K44" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="10" t="s">
-        <v>157</v>
+      <c r="K44" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" ht="17.55" spans="8:11">
+      <c r="H45" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="J45">
         <v>40</v>
       </c>
-      <c r="K45" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="10" t="s">
-        <v>158</v>
+      <c r="K45" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" ht="17.55" spans="8:11">
+      <c r="H46" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="J46">
         <v>41</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="10" t="s">
-        <v>159</v>
+      <c r="K46" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" ht="17.55" spans="8:11">
+      <c r="H47" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="J47">
         <v>42</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="10" t="s">
-        <v>160</v>
+      <c r="K47" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" ht="17.55" spans="8:11">
+      <c r="H48" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="J48">
         <v>43</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="10" t="s">
-        <v>161</v>
+      <c r="K48" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" ht="17.55" spans="8:11">
+      <c r="H49" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="J49">
         <v>44</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="10" t="s">
-        <v>162</v>
+      <c r="K49" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" ht="17.55" spans="8:11">
+      <c r="H50" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="J50">
         <v>45</v>
       </c>
-      <c r="K50" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="10" t="s">
-        <v>163</v>
+      <c r="K50" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" ht="17.55" spans="8:11">
+      <c r="H51" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="J51">
         <v>46</v>
       </c>
-      <c r="K51" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="10" t="s">
-        <v>164</v>
+      <c r="K51" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" ht="17.55" spans="8:11">
+      <c r="H52" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="J52">
         <v>47</v>
       </c>
-      <c r="K52" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="10" t="s">
-        <v>165</v>
+      <c r="K52" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" ht="17.55" spans="8:11">
+      <c r="H53" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="J53">
         <v>48</v>
       </c>
-      <c r="K53" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="10" t="s">
-        <v>166</v>
+      <c r="K53" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" ht="17.55" spans="8:11">
+      <c r="H54" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="J54">
         <v>49</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="10" t="s">
-        <v>167</v>
+      <c r="K54" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" ht="17.55" spans="8:11">
+      <c r="H55" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="J55">
         <v>50</v>
       </c>
-      <c r="K55" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="10" t="s">
-        <v>168</v>
+      <c r="K55" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" ht="17.55" spans="8:11">
+      <c r="H56" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="J56">
         <v>51</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="10" t="s">
-        <v>169</v>
+      <c r="K56" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" ht="17.55" spans="8:11">
+      <c r="H57" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="J57">
         <v>52</v>
       </c>
-      <c r="K57" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H58" s="10" t="s">
-        <v>170</v>
+      <c r="K57" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" ht="17.55" spans="8:11">
+      <c r="H58" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="J58">
         <v>53</v>
       </c>
-      <c r="K58" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H59" s="10" t="s">
-        <v>171</v>
+      <c r="K58" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" ht="17.55" spans="8:11">
+      <c r="H59" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="J59">
         <v>54</v>
       </c>
-      <c r="K59" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H60" s="10" t="s">
-        <v>172</v>
+      <c r="K59" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" ht="17.55" spans="8:11">
+      <c r="H60" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="J60">
         <v>55</v>
       </c>
-      <c r="K60" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H61" s="10" t="s">
-        <v>173</v>
+      <c r="K60" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" ht="17.55" spans="8:11">
+      <c r="H61" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="J61">
         <v>56</v>
       </c>
-      <c r="K61" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="10" t="s">
-        <v>174</v>
+      <c r="K61" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" ht="17.55" spans="8:11">
+      <c r="H62" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="J62">
         <v>57</v>
       </c>
-      <c r="K62" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H63" s="10" t="s">
-        <v>175</v>
+      <c r="K62" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" ht="17.55" spans="8:11">
+      <c r="H63" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="J63">
         <v>58</v>
       </c>
-      <c r="K63" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="10" t="s">
-        <v>176</v>
+      <c r="K63" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" ht="17.55" spans="8:11">
+      <c r="H64" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="J64">
         <v>59</v>
       </c>
-      <c r="K64" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="10" t="s">
-        <v>177</v>
+      <c r="K64" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" ht="17.55" spans="8:11">
+      <c r="H65" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="J65">
         <v>60</v>
       </c>
-      <c r="K65" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H66" s="10" t="s">
-        <v>178</v>
+      <c r="K65" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" ht="17.55" spans="8:11">
+      <c r="H66" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="J66">
         <v>61</v>
       </c>
-      <c r="K66" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H67" s="10" t="s">
-        <v>179</v>
+      <c r="K66" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" ht="17.55" spans="8:11">
+      <c r="H67" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="J67">
         <v>62</v>
       </c>
-      <c r="K67" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H68" s="11" t="s">
-        <v>180</v>
+      <c r="K67" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" ht="17.55" spans="8:11">
+      <c r="H68" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="J68">
         <v>63</v>
       </c>
-      <c r="K68" s="11" t="s">
-        <v>208</v>
+      <c r="K68" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F784E7D-8D69-4C08-BC59-1552CBD9BB08}">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2676,15 +3213,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="219.75" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2740,99 +3277,105 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:8">
       <c r="H5" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
       <c r="H6" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
       <c r="H7" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
       <c r="H8" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
       <c r="H10" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
       <c r="H11" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
       <c r="H12" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
       <c r="H13" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
       <c r="H14" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="14" t="s">
-        <v>137</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B278F-90F0-4A43-AA18-00BD23D3F929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,15 +3397,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="219.75" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2918,39 +3461,39 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -2958,25 +3501,26 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469074A3-DA60-4B92-B2B3-B5A1D3F5AA44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2998,15 +3542,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" ht="219" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3062,31 +3606,31 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:10">
       <c r="H5" s="3" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:10">
       <c r="H6" s="3" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -3096,26 +3640,27 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0F9B5A-3908-430F-9B93-E2FA4ABC29F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L5"/>
+      <selection activeCell="A1" sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="11" max="11" width="78.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,15 +3682,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="219.75" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3201,149 +3746,149 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4">
+        <v>197</v>
+      </c>
+      <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4">
+        <v>199</v>
+      </c>
+      <c r="J5" s="6">
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="4">
+        <v>201</v>
+      </c>
+      <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="4">
+        <v>203</v>
+      </c>
+      <c r="J7" s="6">
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" ht="17.55" spans="8:11">
       <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4">
+        <v>184</v>
+      </c>
+      <c r="J8" s="6">
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4">
+        <v>206</v>
+      </c>
+      <c r="J9" s="6">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="4">
+        <v>208</v>
+      </c>
+      <c r="J10" s="6">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="4">
+        <v>210</v>
+      </c>
+      <c r="J11" s="6">
         <v>8</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="4">
+        <v>212</v>
+      </c>
+      <c r="J12" s="6">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="8:11">
       <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="4">
+        <v>182</v>
+      </c>
+      <c r="J13" s="6">
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="4">
+        <v>215</v>
+      </c>
+      <c r="J14" s="6">
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="4">
+        <v>217</v>
+      </c>
+      <c r="J15" s="6">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="221">
   <si>
     <t>##var</t>
   </si>
@@ -594,7 +594,21 @@
     <t>逆风</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束回合</t>
+    </r>
+  </si>
+  <si>
     <t>阻止属性变化</t>
+  </si>
+  <si>
+    <t>阻止自身技能伤害</t>
   </si>
   <si>
     <t>CardTypeEnum</t>
@@ -712,13 +726,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -726,8 +733,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
     <font>
@@ -874,8 +882,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,12 +983,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,137 +1302,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,40 +1442,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2161,7 +2185,7 @@
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2284,7 +2308,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="J4">
@@ -2325,24 +2349,24 @@
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="21" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="21" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2770,10 +2794,10 @@
       </c>
     </row>
     <row r="32" ht="17.55" spans="8:11">
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="12"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" ht="17.55" spans="8:11">
       <c r="H33" s="5" t="s">
@@ -2820,7 +2844,7 @@
       </c>
     </row>
     <row r="37" ht="17.55" spans="8:11">
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="17" t="s">
         <v>117</v>
       </c>
       <c r="J37">
@@ -3161,13 +3185,13 @@
       </c>
     </row>
     <row r="68" ht="17.55" spans="8:11">
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="19" t="s">
         <v>179</v>
       </c>
       <c r="J68">
         <v>63</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="19" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3183,174 +3207,329 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="219.75" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" ht="17.55" spans="2:11">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" ht="17.55" spans="1:12">
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D4" t="b">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="8:8">
+      <c r="K4" s="11"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="8:8">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="8:8">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="8:8">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="7" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="8:8">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="8:8">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="8:8">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="8:8">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="8:8">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16" s="9" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" ht="17" spans="1:12">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="13" t="s">
         <v>186</v>
       </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3463,13 +3642,13 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3478,7 +3657,7 @@
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3487,13 +3666,13 @@
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -3608,13 +3787,13 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3622,7 +3801,7 @@
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3630,7 +3809,7 @@
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -3748,52 +3927,52 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
@@ -3804,51 +3983,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J11" s="6">
         <v>8</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J12" s="6">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" ht="17.55" spans="8:11">
@@ -3859,29 +4038,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J14" s="6">
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J15" s="6">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="222">
   <si>
     <t>##var</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>阻止自身技能伤害</t>
+  </si>
+  <si>
+    <t>回满血然后回合结束受到等量伤害</t>
   </si>
   <si>
     <t>CardTypeEnum</t>
@@ -910,12 +913,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -983,6 +980,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1311,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,16 +1335,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1350,25 +1353,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1475,20 +1478,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2308,7 +2308,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="J4">
@@ -2349,24 +2349,24 @@
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2384,8 +2384,8 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2479,332 +2479,334 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:11">
+    <row r="4" ht="17.55" spans="2:10">
       <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>53</v>
+      <c r="H4" t="s">
+        <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
       <c r="H8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="17.55" spans="8:11">
       <c r="H13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="17.55" spans="8:11">
       <c r="H16" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="17.55" spans="8:11">
       <c r="H17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="17.55" spans="8:11">
       <c r="H18" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" ht="17.55" spans="8:11">
       <c r="H19" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="17.55" spans="8:11">
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="17.55" spans="8:11">
       <c r="H21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" ht="17.55" spans="8:11">
       <c r="H22" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="17.55" spans="8:11">
       <c r="H23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="17.55" spans="8:11">
       <c r="H24" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="17.55" spans="8:11">
       <c r="H25" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J25">
         <v>21</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" ht="17.55" spans="8:11">
       <c r="H26" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J26">
         <v>22</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" ht="17.55" spans="8:11">
       <c r="H27" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J27">
         <v>23</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" ht="17.55" spans="8:11">
       <c r="H28" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J28">
         <v>24</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" ht="17.55" spans="8:11">
       <c r="H29" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J29">
         <v>25</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="17.55" spans="8:11">
       <c r="H30" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J30">
         <v>26</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" ht="17.55" spans="8:11">
       <c r="H31" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J31">
         <v>27</v>
       </c>
       <c r="K31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" ht="17.55" spans="8:11">
+      <c r="H32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" ht="17.55" spans="8:11">
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="18"/>
     </row>
     <row r="33" ht="17.55" spans="8:11">
       <c r="H33" s="5" t="s">
         <v>109</v>
       </c>
       <c r="J33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>110</v>
@@ -2815,7 +2817,7 @@
         <v>111</v>
       </c>
       <c r="J34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>112</v>
@@ -2826,7 +2828,7 @@
         <v>113</v>
       </c>
       <c r="J35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>114</v>
@@ -2837,7 +2839,7 @@
         <v>115</v>
       </c>
       <c r="J36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>116</v>
@@ -2848,7 +2850,7 @@
         <v>117</v>
       </c>
       <c r="J37">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>118</v>
@@ -2859,7 +2861,7 @@
         <v>119</v>
       </c>
       <c r="J38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>120</v>
@@ -2870,7 +2872,7 @@
         <v>121</v>
       </c>
       <c r="J39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>122</v>
@@ -2881,7 +2883,7 @@
         <v>123</v>
       </c>
       <c r="J40">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>124</v>
@@ -2892,7 +2894,7 @@
         <v>125</v>
       </c>
       <c r="J41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>126</v>
@@ -2903,7 +2905,7 @@
         <v>127</v>
       </c>
       <c r="J42">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>128</v>
@@ -2914,7 +2916,7 @@
         <v>129</v>
       </c>
       <c r="J43">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>130</v>
@@ -2925,7 +2927,7 @@
         <v>131</v>
       </c>
       <c r="J44">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>132</v>
@@ -2936,7 +2938,7 @@
         <v>133</v>
       </c>
       <c r="J45">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>134</v>
@@ -2947,7 +2949,7 @@
         <v>135</v>
       </c>
       <c r="J46">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>136</v>
@@ -2958,7 +2960,7 @@
         <v>137</v>
       </c>
       <c r="J47">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>138</v>
@@ -2969,7 +2971,7 @@
         <v>139</v>
       </c>
       <c r="J48">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>140</v>
@@ -2980,7 +2982,7 @@
         <v>141</v>
       </c>
       <c r="J49">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>142</v>
@@ -2991,7 +2993,7 @@
         <v>143</v>
       </c>
       <c r="J50">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>144</v>
@@ -3002,7 +3004,7 @@
         <v>145</v>
       </c>
       <c r="J51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>146</v>
@@ -3013,7 +3015,7 @@
         <v>147</v>
       </c>
       <c r="J52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>148</v>
@@ -3024,7 +3026,7 @@
         <v>149</v>
       </c>
       <c r="J53">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>150</v>
@@ -3035,7 +3037,7 @@
         <v>151</v>
       </c>
       <c r="J54">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>152</v>
@@ -3046,7 +3048,7 @@
         <v>153</v>
       </c>
       <c r="J55">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>154</v>
@@ -3057,7 +3059,7 @@
         <v>155</v>
       </c>
       <c r="J56">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>156</v>
@@ -3068,7 +3070,7 @@
         <v>157</v>
       </c>
       <c r="J57">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>158</v>
@@ -3079,7 +3081,7 @@
         <v>159</v>
       </c>
       <c r="J58">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>160</v>
@@ -3090,7 +3092,7 @@
         <v>161</v>
       </c>
       <c r="J59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>162</v>
@@ -3101,7 +3103,7 @@
         <v>163</v>
       </c>
       <c r="J60">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>164</v>
@@ -3112,7 +3114,7 @@
         <v>165</v>
       </c>
       <c r="J61">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>166</v>
@@ -3123,7 +3125,7 @@
         <v>167</v>
       </c>
       <c r="J62">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>168</v>
@@ -3134,7 +3136,7 @@
         <v>169</v>
       </c>
       <c r="J63">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>170</v>
@@ -3145,7 +3147,7 @@
         <v>171</v>
       </c>
       <c r="J64">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>172</v>
@@ -3156,7 +3158,7 @@
         <v>173</v>
       </c>
       <c r="J65">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>174</v>
@@ -3167,7 +3169,7 @@
         <v>175</v>
       </c>
       <c r="J66">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>176</v>
@@ -3178,20 +3180,20 @@
         <v>177</v>
       </c>
       <c r="J67">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="68" ht="17.55" spans="8:11">
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="18" t="s">
         <v>179</v>
       </c>
       <c r="J68">
-        <v>63</v>
-      </c>
-      <c r="K68" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" s="18" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3207,10 +3209,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3530,6 +3532,11 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="16" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3642,13 +3649,13 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3657,7 +3664,7 @@
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3666,13 +3673,13 @@
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -3787,13 +3794,13 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3801,7 +3808,7 @@
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3809,7 +3816,7 @@
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -3927,52 +3934,52 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
@@ -3983,51 +3990,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J11" s="6">
         <v>8</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J12" s="6">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" ht="17.55" spans="8:11">
@@ -4038,29 +4045,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J14" s="6">
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J15" s="6">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="223">
   <si>
     <t>##var</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>回满血然后回合结束受到等量伤害</t>
+  </si>
+  <si>
+    <t>下一次技能伤害两倍</t>
   </si>
   <si>
     <t>CardTypeEnum</t>
@@ -3209,10 +3212,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3536,6 +3539,11 @@
     <row r="18" spans="8:8">
       <c r="H18" s="16" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3552,8 +3560,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -3649,37 +3657,46 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -3698,7 +3715,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -3794,32 +3811,35 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3934,52 +3954,52 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
@@ -3990,51 +4010,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J11" s="6">
         <v>8</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J12" s="6">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" ht="17.55" spans="8:11">
@@ -4045,29 +4065,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J14" s="6">
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J15" s="6">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="224">
   <si>
     <t>##var</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>下一次技能伤害两倍</t>
+  </si>
+  <si>
+    <t>抽两张牌</t>
   </si>
   <si>
     <t>CardTypeEnum</t>
@@ -3212,10 +3215,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3544,6 +3547,11 @@
     <row r="19" spans="8:8">
       <c r="H19" s="16" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3568,7 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3657,7 +3665,7 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3666,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3675,7 +3683,7 @@
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3684,7 +3692,7 @@
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3693,7 +3701,7 @@
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3811,7 +3819,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3820,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3828,7 +3836,7 @@
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3836,7 +3844,7 @@
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3954,52 +3962,52 @@
     </row>
     <row r="4" ht="17.55" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="17.55" spans="8:11">
       <c r="H5" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="8:11">
       <c r="H6" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="17.55" spans="8:11">
       <c r="H7" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" ht="17.55" spans="8:11">
@@ -4010,51 +4018,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="17.55" spans="8:11">
       <c r="H9" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" ht="17.55" spans="8:11">
       <c r="H10" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" ht="17.55" spans="8:11">
       <c r="H11" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J11" s="6">
         <v>8</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="17.55" spans="8:11">
       <c r="H12" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J12" s="6">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" ht="17.55" spans="8:11">
@@ -4065,29 +4073,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" ht="17.55" spans="8:11">
       <c r="H14" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J14" s="6">
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" ht="17.55" spans="8:11">
       <c r="H15" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J15" s="6">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ACFF52-1CC4-4EBB-ACA0-D02411FC7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12980" tabRatio="694" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="225">
   <si>
     <t>##var</t>
   </si>
@@ -599,6 +605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>结束回合</t>
@@ -715,18 +722,16 @@
   <si>
     <t>小闪电第一次使用技能时，会将自身的属性变化为该技能的属性。</t>
   </si>
+  <si>
+    <t>下次一次使用风属性时速度提高20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +743,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -745,160 +751,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,7 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799645985290078"/>
+        <fgColor theme="9" tint="0.79961546678060247"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,194 +807,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1193,255 +885,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,40 +901,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1500,62 +930,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1813,19 +1203,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="35.125" customWidth="1"/>
   </cols>
@@ -1852,13 +1242,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1886,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219.75" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1916,61 +1306,61 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:10">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="8:10">
-      <c r="H5" s="6" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="8:10">
-      <c r="H6" s="6" t="s">
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="8:10">
-      <c r="H7" s="6" t="s">
+    <row r="7" spans="1:12">
+      <c r="H7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="8:10">
-      <c r="H8" s="6" t="s">
+    <row r="8" spans="1:12">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="8:10">
-      <c r="H9" s="6" t="s">
+    <row r="9" spans="1:12">
+      <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="8:10">
+    <row r="10" spans="1:12">
       <c r="H10" t="s">
         <v>26</v>
       </c>
@@ -1978,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="8:10">
+    <row r="11" spans="1:12">
       <c r="H11" t="s">
         <v>27</v>
       </c>
@@ -1986,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="8:10">
+    <row r="12" spans="1:12">
       <c r="H12" t="s">
         <v>28</v>
       </c>
@@ -1994,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="8:10">
+    <row r="13" spans="1:12">
       <c r="H13" t="s">
         <v>29</v>
       </c>
@@ -2002,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="8:10">
+    <row r="14" spans="1:12">
       <c r="H14" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="8:10">
+    <row r="15" spans="1:12">
       <c r="H15" t="s">
         <v>31</v>
       </c>
@@ -2022,21 +1412,20 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L11"/>
+      <selection sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.875" customWidth="1"/>
@@ -2064,13 +1453,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2098,7 +1487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2128,70 +1517,70 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:10">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="8:10">
-      <c r="H5" s="6" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="8:10">
-      <c r="H6" s="6" t="s">
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="8:10">
-      <c r="H7" s="6" t="s">
+    <row r="7" spans="1:12">
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="8:10">
-      <c r="H8" s="6" t="s">
+    <row r="8" spans="1:12">
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="8:10">
-      <c r="H9" s="6" t="s">
+    <row r="9" spans="1:12">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="8:10">
-      <c r="H10" s="6" t="s">
+    <row r="10" spans="1:12">
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="8:10">
-      <c r="H11" s="21" t="s">
+    <row r="11" spans="1:12">
+      <c r="H11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2202,21 +1591,20 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
   </cols>
@@ -2243,13 +1631,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2277,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2307,72 +1695,72 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:10">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="8:11">
-      <c r="H5" s="5" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="8:11">
-      <c r="H6" s="5" t="s">
+    <row r="6" spans="1:12">
+      <c r="H6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="8:11">
-      <c r="H7" s="5" t="s">
+    <row r="7" spans="1:12">
+      <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="8:11">
-      <c r="H8" s="20" t="s">
+    <row r="8" spans="1:12">
+      <c r="H8" s="12" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="8:11">
-      <c r="H9" s="20" t="s">
+    <row r="9" spans="1:12">
+      <c r="H9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2380,21 +1768,20 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="11" max="11" width="70.625" customWidth="1"/>
   </cols>
@@ -2421,13 +1808,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2455,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219.75" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2485,8 +1872,8 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:10">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="D4" t="b">
@@ -2499,707 +1886,707 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="8:11">
-      <c r="H5" s="5" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="8:11">
-      <c r="H6" s="5" t="s">
+    <row r="6" spans="1:12">
+      <c r="H6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="8:11">
-      <c r="H7" s="5" t="s">
+    <row r="7" spans="1:12">
+      <c r="H7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="8:11">
-      <c r="H8" s="5" t="s">
+    <row r="8" spans="1:12">
+      <c r="H8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="8:11">
-      <c r="H9" s="5" t="s">
+    <row r="9" spans="1:12">
+      <c r="H9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="8:11">
-      <c r="H10" s="5" t="s">
+    <row r="10" spans="1:12">
+      <c r="H10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="8:11">
-      <c r="H11" s="5" t="s">
+    <row r="11" spans="1:12">
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="8:11">
-      <c r="H12" s="5" t="s">
+    <row r="12" spans="1:12">
+      <c r="H12" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="8:11">
-      <c r="H13" s="5" t="s">
+    <row r="13" spans="1:12">
+      <c r="H13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="8:11">
-      <c r="H14" s="5" t="s">
+    <row r="14" spans="1:12">
+      <c r="H14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="8:11">
-      <c r="H15" s="5" t="s">
+    <row r="15" spans="1:12">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="8:11">
-      <c r="H16" s="5" t="s">
+    <row r="16" spans="1:12">
+      <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="8:11">
-      <c r="H17" s="5" t="s">
+    <row r="17" spans="8:11">
+      <c r="H17" s="3" t="s">
         <v>77</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" ht="17.55" spans="8:11">
-      <c r="H18" s="5" t="s">
+    <row r="18" spans="8:11">
+      <c r="H18" s="3" t="s">
         <v>79</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" ht="17.55" spans="8:11">
-      <c r="H19" s="5" t="s">
+    <row r="19" spans="8:11">
+      <c r="H19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" ht="17.55" spans="8:11">
-      <c r="H20" s="5" t="s">
+    <row r="20" spans="8:11">
+      <c r="H20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" ht="17.55" spans="8:11">
-      <c r="H21" s="5" t="s">
+    <row r="21" spans="8:11">
+      <c r="H21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" ht="17.55" spans="8:11">
-      <c r="H22" s="5" t="s">
+    <row r="22" spans="8:11">
+      <c r="H22" s="3" t="s">
         <v>87</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="17.55" spans="8:11">
-      <c r="H23" s="5" t="s">
+    <row r="23" spans="8:11">
+      <c r="H23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" ht="17.55" spans="8:11">
-      <c r="H24" s="5" t="s">
+    <row r="24" spans="8:11">
+      <c r="H24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" ht="17.55" spans="8:11">
-      <c r="H25" s="5" t="s">
+    <row r="25" spans="8:11">
+      <c r="H25" s="3" t="s">
         <v>93</v>
       </c>
       <c r="J25">
         <v>21</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" ht="17.55" spans="8:11">
-      <c r="H26" s="5" t="s">
+    <row r="26" spans="8:11">
+      <c r="H26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="J26">
         <v>22</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" ht="17.55" spans="8:11">
-      <c r="H27" s="5" t="s">
+    <row r="27" spans="8:11">
+      <c r="H27" s="3" t="s">
         <v>97</v>
       </c>
       <c r="J27">
         <v>23</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" ht="17.55" spans="8:11">
-      <c r="H28" s="5" t="s">
+    <row r="28" spans="8:11">
+      <c r="H28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="J28">
         <v>24</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" ht="17.55" spans="8:11">
-      <c r="H29" s="5" t="s">
+    <row r="29" spans="8:11">
+      <c r="H29" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J29">
         <v>25</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" ht="17.55" spans="8:11">
-      <c r="H30" s="5" t="s">
+    <row r="30" spans="8:11">
+      <c r="H30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="J30">
         <v>26</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" ht="17.55" spans="8:11">
-      <c r="H31" s="5" t="s">
+    <row r="31" spans="8:11">
+      <c r="H31" s="3" t="s">
         <v>105</v>
       </c>
       <c r="J31">
         <v>27</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" ht="17.55" spans="8:11">
-      <c r="H32" s="5" t="s">
+    <row r="32" spans="8:11">
+      <c r="H32" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J32">
         <v>28</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" ht="17.55" spans="8:11">
-      <c r="H33" s="5" t="s">
+    <row r="33" spans="8:11">
+      <c r="H33" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J33">
         <v>29</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" ht="17.55" spans="8:11">
-      <c r="H34" s="5" t="s">
+    <row r="34" spans="8:11">
+      <c r="H34" s="3" t="s">
         <v>111</v>
       </c>
       <c r="J34">
         <v>30</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" ht="17.55" spans="8:11">
-      <c r="H35" s="5" t="s">
+    <row r="35" spans="8:11">
+      <c r="H35" s="3" t="s">
         <v>113</v>
       </c>
       <c r="J35">
         <v>31</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" ht="17.55" spans="8:11">
-      <c r="H36" s="5" t="s">
+    <row r="36" spans="8:11">
+      <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
       <c r="J36">
         <v>32</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" ht="17.55" spans="8:11">
-      <c r="H37" s="17" t="s">
+    <row r="37" spans="8:11">
+      <c r="H37" s="9" t="s">
         <v>117</v>
       </c>
       <c r="J37">
         <v>33</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" ht="17.55" spans="8:11">
-      <c r="H38" s="5" t="s">
+    <row r="38" spans="8:11">
+      <c r="H38" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J38">
         <v>34</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" ht="17.55" spans="8:11">
-      <c r="H39" s="5" t="s">
+    <row r="39" spans="8:11">
+      <c r="H39" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J39">
         <v>35</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" ht="17.55" spans="8:11">
-      <c r="H40" s="5" t="s">
+    <row r="40" spans="8:11">
+      <c r="H40" s="3" t="s">
         <v>123</v>
       </c>
       <c r="J40">
         <v>36</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" ht="17.55" spans="8:11">
-      <c r="H41" s="5" t="s">
+    <row r="41" spans="8:11">
+      <c r="H41" s="3" t="s">
         <v>125</v>
       </c>
       <c r="J41">
         <v>37</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" ht="17.55" spans="8:11">
-      <c r="H42" s="5" t="s">
+    <row r="42" spans="8:11">
+      <c r="H42" s="3" t="s">
         <v>127</v>
       </c>
       <c r="J42">
         <v>38</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" ht="17.55" spans="8:11">
-      <c r="H43" s="5" t="s">
+    <row r="43" spans="8:11">
+      <c r="H43" s="3" t="s">
         <v>129</v>
       </c>
       <c r="J43">
         <v>39</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" ht="17.55" spans="8:11">
-      <c r="H44" s="5" t="s">
+    <row r="44" spans="8:11">
+      <c r="H44" s="3" t="s">
         <v>131</v>
       </c>
       <c r="J44">
         <v>40</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" ht="17.55" spans="8:11">
-      <c r="H45" s="5" t="s">
+    <row r="45" spans="8:11">
+      <c r="H45" s="3" t="s">
         <v>133</v>
       </c>
       <c r="J45">
         <v>41</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" ht="17.55" spans="8:11">
-      <c r="H46" s="5" t="s">
+    <row r="46" spans="8:11">
+      <c r="H46" s="3" t="s">
         <v>135</v>
       </c>
       <c r="J46">
         <v>42</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" ht="17.55" spans="8:11">
-      <c r="H47" s="5" t="s">
+    <row r="47" spans="8:11">
+      <c r="H47" s="3" t="s">
         <v>137</v>
       </c>
       <c r="J47">
         <v>43</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" ht="17.55" spans="8:11">
-      <c r="H48" s="5" t="s">
+    <row r="48" spans="8:11">
+      <c r="H48" s="3" t="s">
         <v>139</v>
       </c>
       <c r="J48">
         <v>44</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" ht="17.55" spans="8:11">
-      <c r="H49" s="5" t="s">
+    <row r="49" spans="8:11">
+      <c r="H49" s="3" t="s">
         <v>141</v>
       </c>
       <c r="J49">
         <v>45</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" ht="17.55" spans="8:11">
-      <c r="H50" s="5" t="s">
+    <row r="50" spans="8:11">
+      <c r="H50" s="3" t="s">
         <v>143</v>
       </c>
       <c r="J50">
         <v>46</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" ht="17.55" spans="8:11">
-      <c r="H51" s="5" t="s">
+    <row r="51" spans="8:11">
+      <c r="H51" s="3" t="s">
         <v>145</v>
       </c>
       <c r="J51">
         <v>47</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" ht="17.55" spans="8:11">
-      <c r="H52" s="5" t="s">
+    <row r="52" spans="8:11">
+      <c r="H52" s="3" t="s">
         <v>147</v>
       </c>
       <c r="J52">
         <v>48</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" ht="17.55" spans="8:11">
-      <c r="H53" s="5" t="s">
+    <row r="53" spans="8:11">
+      <c r="H53" s="3" t="s">
         <v>149</v>
       </c>
       <c r="J53">
         <v>49</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" ht="17.55" spans="8:11">
-      <c r="H54" s="5" t="s">
+    <row r="54" spans="8:11">
+      <c r="H54" s="3" t="s">
         <v>151</v>
       </c>
       <c r="J54">
         <v>50</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" ht="17.55" spans="8:11">
-      <c r="H55" s="5" t="s">
+    <row r="55" spans="8:11">
+      <c r="H55" s="3" t="s">
         <v>153</v>
       </c>
       <c r="J55">
         <v>51</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" ht="17.55" spans="8:11">
-      <c r="H56" s="5" t="s">
+    <row r="56" spans="8:11">
+      <c r="H56" s="3" t="s">
         <v>155</v>
       </c>
       <c r="J56">
         <v>52</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" ht="17.55" spans="8:11">
-      <c r="H57" s="5" t="s">
+    <row r="57" spans="8:11">
+      <c r="H57" s="3" t="s">
         <v>157</v>
       </c>
       <c r="J57">
         <v>53</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" ht="17.55" spans="8:11">
-      <c r="H58" s="5" t="s">
+    <row r="58" spans="8:11">
+      <c r="H58" s="3" t="s">
         <v>159</v>
       </c>
       <c r="J58">
         <v>54</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" ht="17.55" spans="8:11">
-      <c r="H59" s="5" t="s">
+    <row r="59" spans="8:11">
+      <c r="H59" s="3" t="s">
         <v>161</v>
       </c>
       <c r="J59">
         <v>55</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" ht="17.55" spans="8:11">
-      <c r="H60" s="5" t="s">
+    <row r="60" spans="8:11">
+      <c r="H60" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J60">
         <v>56</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" ht="17.55" spans="8:11">
-      <c r="H61" s="5" t="s">
+    <row r="61" spans="8:11">
+      <c r="H61" s="3" t="s">
         <v>165</v>
       </c>
       <c r="J61">
         <v>57</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" ht="17.55" spans="8:11">
-      <c r="H62" s="5" t="s">
+    <row r="62" spans="8:11">
+      <c r="H62" s="3" t="s">
         <v>167</v>
       </c>
       <c r="J62">
         <v>58</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" ht="17.55" spans="8:11">
-      <c r="H63" s="5" t="s">
+    <row r="63" spans="8:11">
+      <c r="H63" s="3" t="s">
         <v>169</v>
       </c>
       <c r="J63">
         <v>59</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="64" ht="17.55" spans="8:11">
-      <c r="H64" s="5" t="s">
+    <row r="64" spans="8:11">
+      <c r="H64" s="3" t="s">
         <v>171</v>
       </c>
       <c r="J64">
         <v>60</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="65" ht="17.55" spans="8:11">
-      <c r="H65" s="5" t="s">
+    <row r="65" spans="8:11">
+      <c r="H65" s="3" t="s">
         <v>173</v>
       </c>
       <c r="J65">
         <v>61</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" ht="17.55" spans="8:11">
-      <c r="H66" s="5" t="s">
+    <row r="66" spans="8:11">
+      <c r="H66" s="3" t="s">
         <v>175</v>
       </c>
       <c r="J66">
         <v>62</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" ht="17.55" spans="8:11">
-      <c r="H67" s="5" t="s">
+    <row r="67" spans="8:11">
+      <c r="H67" s="3" t="s">
         <v>177</v>
       </c>
       <c r="J67">
         <v>63</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="68" ht="17.55" spans="8:11">
-      <c r="H68" s="18" t="s">
+    <row r="68" spans="8:11">
+      <c r="H68" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J68">
         <v>64</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="K68" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3207,375 +2594,20 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="219.75" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" ht="17.55" spans="1:12">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" ht="17" spans="1:12">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -3599,13 +2631,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3633,7 +2665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219.75" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3663,72 +2695,126 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:11">
-      <c r="B4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>181</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" ht="17.55" spans="8:11">
-      <c r="H5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="17.55" spans="8:11">
-      <c r="H6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" ht="17.55" spans="8:11">
-      <c r="H7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7" s="5"/>
+    <row r="5" spans="1:12">
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="H15" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3753,13 +2839,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3787,7 +2873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3817,9 +2903,9 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="3" t="s">
-        <v>197</v>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>192</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3828,47 +2914,199 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="8:10">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="H5" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="8:10">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="H6" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="171">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L5"/>
+      <selection sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="11" max="11" width="78.25" customWidth="1"/>
@@ -3896,13 +3134,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3930,7 +3168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="219.75" spans="1:12">
+    <row r="3" spans="1:12" ht="171">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3960,141 +3198,141 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" ht="17.55" spans="2:11">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
         <v>201</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="8:11">
-      <c r="H5" s="5" t="s">
+    <row r="5" spans="1:12">
+      <c r="H5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="8:11">
-      <c r="H6" s="5" t="s">
+    <row r="6" spans="1:12">
+      <c r="H6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="8:11">
-      <c r="H7" s="5" t="s">
+    <row r="7" spans="1:12">
+      <c r="H7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="8:11">
-      <c r="H8" s="5" t="s">
+    <row r="8" spans="1:12">
+      <c r="H8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="8:11">
-      <c r="H9" s="5" t="s">
+    <row r="9" spans="1:12">
+      <c r="H9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>6</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="8:11">
-      <c r="H10" s="5" t="s">
+    <row r="10" spans="1:12">
+      <c r="H10" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>7</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="8:11">
-      <c r="H11" s="5" t="s">
+    <row r="11" spans="1:12">
+      <c r="H11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>8</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="8:11">
-      <c r="H12" s="5" t="s">
+    <row r="12" spans="1:12">
+      <c r="H12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>9</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="8:11">
-      <c r="H13" s="5" t="s">
+    <row r="13" spans="1:12">
+      <c r="H13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>10</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="8:11">
-      <c r="H14" s="5" t="s">
+    <row r="14" spans="1:12">
+      <c r="H14" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>11</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="8:11">
-      <c r="H15" s="5" t="s">
+    <row r="15" spans="1:12">
+      <c r="H15" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>12</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4102,7 +3340,7 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ACFF52-1CC4-4EBB-ACA0-D02411FC7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE25921-9E7C-4967-97CB-D44E79BB43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="227">
   <si>
     <t>##var</t>
   </si>
@@ -726,12 +724,49 @@
     <t>下次一次使用风属性时速度提高20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>使用喙啄时对方丢一张牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>技能造成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变成优先级倍</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +809,34 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -891,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +997,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2601,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2793,6 +2859,16 @@
     <row r="21" spans="8:8">
       <c r="H21" s="15" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE25921-9E7C-4967-97CB-D44E79BB43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D456A-75CF-4EF3-87D5-A08443DF1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="228">
   <si>
     <t>##var</t>
   </si>
@@ -759,6 +759,10 @@
       </rPr>
       <t>变成优先级倍</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手弃牌时自己摸等量手牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2667,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
@@ -2869,6 +2873,11 @@
     <row r="23" spans="8:8">
       <c r="H23" s="16" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="15" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D456A-75CF-4EF3-87D5-A08443DF1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E9AC88-6D08-4843-8BF7-244B3033189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="229">
   <si>
     <t>##var</t>
   </si>
@@ -763,6 +763,29 @@
   </si>
   <si>
     <t>对手弃牌时自己摸等量手牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>该选手的速度代替攻击力进行伤害计算</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2671,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2878,6 +2901,11 @@
     <row r="24" spans="8:8">
       <c r="H24" s="15" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E9AC88-6D08-4843-8BF7-244B3033189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821103D4-CE33-4A72-9E8B-52D67D1BDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="230">
   <si>
     <t>##var</t>
   </si>
@@ -786,6 +786,10 @@
       </rPr>
       <t>该选手的速度代替攻击力进行伤害计算</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合内消耗对手弃置的牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2694,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2906,6 +2910,11 @@
     <row r="25" spans="8:8">
       <c r="H25" s="16" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821103D4-CE33-4A72-9E8B-52D67D1BDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498BD2E-50EC-4BE2-B1AB-C623DD6B7F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="234">
   <si>
     <t>##var</t>
   </si>
@@ -792,12 +792,28 @@
     <t>回合内消耗对手弃置的牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>连续技能必定打最多次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果不好时变成一点五倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次技能让对方弃牌概率变成1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己受到伤害时攻击方也会受到等量伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +884,13 @@
       <name val="Tahoma"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -985,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,7 +1051,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2698,13 +2727,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -2898,7 +2930,7 @@
       </c>
     </row>
     <row r="23" spans="8:8">
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="17" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2908,13 +2940,33 @@
       </c>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="17" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="15" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498BD2E-50EC-4BE2-B1AB-C623DD6B7F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD1950-C0B0-4182-B159-5B2EC0FEAA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="235">
   <si>
     <t>##var</t>
   </si>
@@ -766,29 +766,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>该选手的速度代替攻击力进行伤害计算</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>回合内消耗对手弃置的牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -807,13 +784,19 @@
   <si>
     <t>自己受到伤害时攻击方也会受到等量伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束后额外获得一个回合</t>
+  </si>
+  <si>
+    <t>用速度代替攻击力进行伤害计算</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +872,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1008,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1048,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2727,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2940,32 +2933,37 @@
       </c>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="17" t="s">
-        <v>228</v>
+      <c r="H25" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" t="s">
         <v>233</v>
       </c>
     </row>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD1950-C0B0-4182-B159-5B2EC0FEAA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCCB91-1369-4BB0-A9C2-A3754DA886C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="236">
   <si>
     <t>##var</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>用速度代替攻击力进行伤害计算</t>
+  </si>
+  <si>
+    <t>出牌时有40概率受到50点伤害</t>
   </si>
 </sst>
 </file>
@@ -2720,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2965,6 +2968,11 @@
     <row r="31" spans="8:8">
       <c r="H31" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="16" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCCB91-1369-4BB0-A9C2-A3754DA886C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49473ACD-27EE-433F-A891-07D37AF7D16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="237">
   <si>
     <t>##var</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>出牌时有40概率受到50点伤害</t>
+  </si>
+  <si>
+    <t>没有手牌时当前宝可梦生命值归0</t>
   </si>
 </sst>
 </file>
@@ -2723,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2973,6 +2976,11 @@
     <row r="32" spans="8:8">
       <c r="H32" s="16" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49473ACD-27EE-433F-A891-07D37AF7D16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A60A37-8A48-4505-BC67-B1D3E8EE1248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,10 +778,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>下一次技能让对方弃牌概率变成1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>自己受到伤害时攻击方也会受到等量伤害</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -796,6 +792,10 @@
   </si>
   <si>
     <t>没有手牌时当前宝可梦生命值归0</t>
+  </si>
+  <si>
+    <t>下一次技能让对方受伤时弃牌概率变成1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="8:8">
@@ -2960,27 +2960,27 @@
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A60A37-8A48-4505-BC67-B1D3E8EE1248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365395B-6EDE-48A5-828B-E775C08B3A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
   <si>
     <t>##var</t>
   </si>
@@ -797,12 +797,16 @@
     <t>下一次技能让对方受伤时弃牌概率变成1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>狂风不灭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +888,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1004,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1067,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2726,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2981,6 +2994,11 @@
     <row r="33" spans="8:8">
       <c r="H33" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="20" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365395B-6EDE-48A5-828B-E775C08B3A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE0A99-27C2-4AA4-9442-32C4A1AAAAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="239">
   <si>
     <t>##var</t>
   </si>
@@ -800,6 +800,9 @@
   <si>
     <t>狂风不灭</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加十点适应力</t>
   </si>
 </sst>
 </file>
@@ -2739,10 +2742,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2999,6 +3002,11 @@
     <row r="34" spans="8:8">
       <c r="H34" s="20" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE0A99-27C2-4AA4-9442-32C4A1AAAAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476C066-CD19-4651-8BB5-8C46CA3B808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,9 +617,6 @@
   </si>
   <si>
     <t>回满血然后回合结束受到等量伤害</t>
-  </si>
-  <si>
-    <t>下一次技能伤害两倍</t>
   </si>
   <si>
     <t>抽两张牌</t>
@@ -803,6 +800,10 @@
   </si>
   <si>
     <t>加十点适应力</t>
+  </si>
+  <si>
+    <t>下一次技能伤害两倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2744,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2925,88 +2926,88 @@
       </c>
     </row>
     <row r="19" spans="8:8">
-      <c r="H19" s="8" t="s">
-        <v>190</v>
+      <c r="H19" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3120,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3128,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3137,7 +3138,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3146,7 +3147,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="H6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3155,7 +3156,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="H7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3272,7 +3273,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3281,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3289,7 +3290,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="H5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3297,7 +3298,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="H6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3414,52 +3415,52 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="H6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="H7" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J7" s="4">
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3470,51 +3471,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="H9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J9" s="4">
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="H10" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J10" s="4">
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="H11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J11" s="4">
         <v>8</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="H12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J12" s="4">
         <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3525,29 +3526,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="H14" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J14" s="4">
         <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="H15" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J15" s="4">
         <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1476C066-CD19-4651-8BB5-8C46CA3B808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B257C40-ED9D-4ADF-BD10-CAB2C0212D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="241">
   <si>
     <t>##var</t>
   </si>
@@ -635,18 +635,6 @@
   </si>
   <si>
     <t>虚无</t>
-  </si>
-  <si>
-    <t>ActiveSkillTypeEnum</t>
-  </si>
-  <si>
-    <t>指挥</t>
-  </si>
-  <si>
-    <t>伤害技能</t>
-  </si>
-  <si>
-    <t>变化技能</t>
   </si>
   <si>
     <t>PassiveSkillEnum</t>
@@ -803,6 +791,30 @@
   </si>
   <si>
     <t>下一次技能伤害两倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次伤害加80</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveSkillTypeEnum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
@@ -2743,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2927,7 +2939,7 @@
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="8:8">
@@ -2937,77 +2949,82 @@
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="16" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3041,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3174,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3272,8 +3289,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>196</v>
+      <c r="B4" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3281,27 +3298,35 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>197</v>
+      <c r="H4" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="H5" t="s">
-        <v>198</v>
+      <c r="H5" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="H6" t="s">
-        <v>199</v>
+      <c r="H6" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="J6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3415,52 +3440,52 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="H6" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="H7" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J7" s="4">
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3471,51 +3496,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="H9" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J9" s="4">
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="H10" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J10" s="4">
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="H11" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J11" s="4">
         <v>8</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="H12" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J12" s="4">
         <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3526,29 +3551,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="H14" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J14" s="4">
         <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="H15" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J15" s="4">
         <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B257C40-ED9D-4ADF-BD10-CAB2C0212D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F922916-F86C-40BE-BDC5-11EC509937E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -614,9 +614,6 @@
   </si>
   <si>
     <t>阻止自身技能伤害</t>
-  </si>
-  <si>
-    <t>回满血然后回合结束受到等量伤害</t>
   </si>
   <si>
     <t>抽两张牌</t>
@@ -763,10 +760,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>自己受到伤害时攻击方也会受到等量伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>回合结束后额外获得一个回合</t>
   </si>
   <si>
@@ -815,6 +808,14 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回满血然后回合结束受到等量伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己受到伤害时攻击方也会受到等量伤害的一半</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1069,9 +1070,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1087,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,13 +1397,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1607,13 +1608,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1785,13 +1786,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1962,13 +1963,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2757,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2788,13 +2789,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2933,98 +2934,98 @@
       </c>
     </row>
     <row r="18" spans="8:8">
-      <c r="H18" s="8" t="s">
-        <v>189</v>
+      <c r="H18" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="8:8">
-      <c r="H19" s="15" t="s">
-        <v>234</v>
+      <c r="H19" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="8:8">
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="8:8">
-      <c r="H22" s="15" t="s">
+    <row r="23" spans="8:8">
+      <c r="H23" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="17" t="s">
+    <row r="24" spans="8:8">
+      <c r="H24" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="15" t="s">
+    <row r="25" spans="8:8">
+      <c r="H25" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="15" t="s">
+    <row r="27" spans="8:8">
+      <c r="H27" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="18" t="s">
+    <row r="28" spans="8:8">
+      <c r="H28" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="16" t="s">
-        <v>231</v>
+      <c r="H29" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="16" t="s">
-        <v>226</v>
+      <c r="H30" s="15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="15" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" s="16" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="19" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="20" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="15" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="16" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3071,13 +3072,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3137,7 +3138,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3146,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3155,7 +3156,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3164,7 +3165,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="H6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3173,7 +3174,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="H7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3193,7 +3194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -3224,13 +3225,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3289,8 +3290,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="16" t="s">
-        <v>236</v>
+      <c r="B4" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3298,32 +3299,32 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>240</v>
+      <c r="H4" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="H5" s="16" t="s">
-        <v>238</v>
+      <c r="H5" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="H6" s="16" t="s">
-        <v>237</v>
+      <c r="H6" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="H7" s="16" t="s">
-        <v>239</v>
+      <c r="H7" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3374,13 +3375,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3440,52 +3441,52 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="H6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="H7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" s="4">
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3496,51 +3497,51 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="H9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" s="4">
         <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="H10" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="4">
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="H11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J11" s="4">
         <v>8</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="H12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J12" s="4">
         <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3551,29 +3552,29 @@
         <v>10</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="H14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J14" s="4">
         <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="H15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J15" s="4">
         <v>12</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BooomJam2024\Excels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F922916-F86C-40BE-BDC5-11EC509937E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="694" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="694" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -31,6 +25,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="241">
   <si>
     <t>##var</t>
   </si>
@@ -581,6 +577,12 @@
   </si>
   <si>
     <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
+  </si>
+  <si>
+    <t>送你一朵小花花</t>
+  </si>
+  <si>
+    <t>送给对手一朵珍藏的花。</t>
   </si>
   <si>
     <t>BattleBuffEnum</t>
@@ -603,7 +605,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>结束回合</t>
@@ -616,99 +617,19 @@
     <t>阻止自身技能伤害</t>
   </si>
   <si>
+    <t>回满血然后回合结束受到等量伤害</t>
+  </si>
+  <si>
+    <t>下一次技能伤害两倍</t>
+  </si>
+  <si>
     <t>抽两张牌</t>
   </si>
   <si>
-    <t>CardTypeEnum</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>消耗</t>
-  </si>
-  <si>
-    <t>保留</t>
-  </si>
-  <si>
-    <t>虚无</t>
-  </si>
-  <si>
-    <t>PassiveSkillEnum</t>
-  </si>
-  <si>
-    <t>怒火喷发</t>
-  </si>
-  <si>
-    <t>怒潮龙在满血状态下会造成1.5倍的伤害。</t>
-  </si>
-  <si>
-    <t>火焰共鸣</t>
-  </si>
-  <si>
-    <t>烈火领主使用技能的本系威力加成为1.5倍。</t>
-  </si>
-  <si>
-    <t>枯木逢春</t>
-  </si>
-  <si>
-    <t>枯木妖每受到100点伤害，适应力便增加5点，最多可以叠加到20点，并且不计入枯木妖的最大适应力。</t>
-  </si>
-  <si>
-    <t>噼里啪啦</t>
-  </si>
-  <si>
-    <t>噼啪小将使用电属性技能时，攻击力会增加10点，最多可以叠加到30点，并且不计入噼啪小将的最大攻击力。</t>
-  </si>
-  <si>
-    <t>疾风之翼使用风属性技能时，必定优先行动。</t>
-  </si>
-  <si>
-    <t>毒素治疗</t>
-  </si>
-  <si>
-    <t>毒宝宝使用毒属性技能后，会恢复此次造成伤害的30%的生命值。</t>
-  </si>
-  <si>
-    <t>大口吃</t>
-  </si>
-  <si>
-    <t>一口鲸受到技能攻击时，有20%的概率会使此次技能攻击无效。</t>
-  </si>
-  <si>
-    <t>内敛</t>
-  </si>
-  <si>
-    <t>吞火熊不会被水属性技能克制。</t>
-  </si>
-  <si>
-    <t>轰隆冲击</t>
-  </si>
-  <si>
-    <t>推土牛处于草地战场时，速度变为原来的2倍，并且此效果无视推土牛的最大速度。</t>
-  </si>
-  <si>
-    <t>电电鼠的生命值第一次不大于50%时，会更换选手；然后电电鼠下一次上场时，所有数值变为原来的1.5倍。</t>
-  </si>
-  <si>
-    <t>狂风不灭</t>
-  </si>
-  <si>
-    <t>斯托姆第一次被击败时，恢复最大生命值的50%，并且不会被击败。</t>
-  </si>
-  <si>
-    <t>集合体</t>
-  </si>
-  <si>
-    <t>小闪电第一次使用技能时，会将自身的属性变化为该技能的属性。</t>
-  </si>
-  <si>
     <t>下次一次使用风属性时速度提高20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>使用喙啄时对方丢一张牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -716,7 +637,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>技能造成的</t>
@@ -726,7 +646,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>伤害</t>
@@ -736,94 +655,155 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>变成优先级倍</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对手弃牌时自己摸等量手牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用速度代替攻击力进行伤害计算</t>
   </si>
   <si>
     <t>回合内消耗对手弃置的牌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>连续技能必定打最多次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能效果不好时变成一点五倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一次技能让对方受伤时弃牌概率变成1</t>
+  </si>
+  <si>
+    <t>自己受到伤害时攻击方也会受到等量伤害的一半</t>
   </si>
   <si>
     <t>回合结束后额外获得一个回合</t>
   </si>
   <si>
-    <t>用速度代替攻击力进行伤害计算</t>
-  </si>
-  <si>
     <t>出牌时有40概率受到50点伤害</t>
   </si>
   <si>
     <t>没有手牌时当前宝可梦生命值归0</t>
   </si>
   <si>
-    <t>下一次技能让对方受伤时弃牌概率变成1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>狂风不灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加十点适应力</t>
   </si>
   <si>
-    <t>下一次技能伤害两倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>下一次伤害加80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTypeEnum</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>虚无</t>
   </si>
   <si>
     <t>ActiveSkillTypeEnum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
   </si>
   <si>
     <t>伤害技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>变化技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回满血然后回合结束受到等量伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己受到伤害时攻击方也会受到等量伤害的一半</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSkillEnum</t>
+  </si>
+  <si>
+    <t>怒火喷发</t>
+  </si>
+  <si>
+    <t>怒潮龙在满血状态下会造成1.5倍的伤害。</t>
+  </si>
+  <si>
+    <t>火焰共鸣</t>
+  </si>
+  <si>
+    <t>烈火领主使用技能的本系威力加成为1.5倍。</t>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+  </si>
+  <si>
+    <t>枯木妖每受到100点伤害，适应力便增加5点，最多可以叠加到20点，并且不计入枯木妖的最大适应力。</t>
+  </si>
+  <si>
+    <t>噼里啪啦</t>
+  </si>
+  <si>
+    <t>噼啪小将使用电属性技能时，攻击力会增加10点，最多可以叠加到30点，并且不计入噼啪小将的最大攻击力。</t>
+  </si>
+  <si>
+    <t>疾风之翼使用风属性技能时，必定优先行动。</t>
+  </si>
+  <si>
+    <t>毒素治疗</t>
+  </si>
+  <si>
+    <t>毒宝宝使用毒属性技能后，会恢复此次造成伤害的30%的生命值。</t>
+  </si>
+  <si>
+    <t>大口吃</t>
+  </si>
+  <si>
+    <t>一口鲸受到技能攻击时，有20%的概率会使此次技能攻击无效。</t>
+  </si>
+  <si>
+    <t>内敛</t>
+  </si>
+  <si>
+    <t>吞火熊不会被水属性技能克制。</t>
+  </si>
+  <si>
+    <t>轰隆冲击</t>
+  </si>
+  <si>
+    <t>推土牛处于草地战场时，速度变为原来的2倍，并且此效果无视推土牛的最大速度。</t>
+  </si>
+  <si>
+    <t>电电鼠的生命值第一次不大于50%时，会更换选手；然后电电鼠下一次上场时，所有数值变为原来的1.5倍。</t>
+  </si>
+  <si>
+    <t>斯托姆第一次被击败时，恢复最大生命值的50%，并且不会被击败。</t>
+  </si>
+  <si>
+    <t>集合体</t>
+  </si>
+  <si>
+    <t>小闪电第一次使用技能时，会将自身的属性变化为该技能的属性。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,7 +815,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -843,80 +829,201 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,7 +1032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79961546678060247"/>
+        <fgColor theme="9" tint="0.799615466780602"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,8 +1054,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1025,18 +1318,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1047,20 +1585,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1070,37 +1625,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1358,21 +1938,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="35.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1397,13 +1977,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1431,14 +2011,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="180.15" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1461,61 +2041,61 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:10">
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="4" t="s">
+    <row r="5" ht="14.55" spans="8:10">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="4" t="s">
+    <row r="6" ht="14.55" spans="8:10">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="4" t="s">
+    <row r="7" ht="14.55" spans="8:10">
+      <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="4" t="s">
+    <row r="8" ht="14.55" spans="8:10">
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="4" t="s">
+    <row r="9" ht="14.55" spans="8:10">
+      <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="8:10">
       <c r="H10" t="s">
         <v>26</v>
       </c>
@@ -1523,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="8:10">
       <c r="H11" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="8:10">
       <c r="H12" t="s">
         <v>28</v>
       </c>
@@ -1539,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="8:10">
       <c r="H13" t="s">
         <v>29</v>
       </c>
@@ -1547,7 +2127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="8:10">
       <c r="H14" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +2135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="8:10">
       <c r="H15" t="s">
         <v>31</v>
       </c>
@@ -1567,23 +2147,24 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L11"/>
+      <selection activeCell="A1" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="31.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1608,13 +2189,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1642,14 +2223,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="179.4" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1672,7 +2253,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:10">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -1686,56 +2267,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="4" t="s">
+    <row r="5" ht="14.55" spans="8:10">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="4" t="s">
+    <row r="6" ht="14.55" spans="8:10">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="4" t="s">
+    <row r="7" ht="14.55" spans="8:10">
+      <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="4" t="s">
+    <row r="8" ht="14.55" spans="8:10">
+      <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="4" t="s">
+    <row r="9" ht="14.55" spans="8:10">
+      <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="4" t="s">
+    <row r="10" ht="14.55" spans="8:10">
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="H11" s="13" t="s">
+    <row r="11" spans="8:10">
+      <c r="H11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -1746,20 +2327,21 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
   </cols>
@@ -1786,13 +2368,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1820,14 +2402,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="179.4" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1850,72 +2432,72 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:10">
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="3" t="s">
+    <row r="5" ht="14.55" spans="8:11">
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="3" t="s">
+    <row r="6" ht="14.55" spans="8:11">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="3" t="s">
+    <row r="7" ht="14.55" spans="8:11">
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="12" t="s">
+    <row r="8" ht="14.55" spans="8:11">
+      <c r="H8" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="12" t="s">
+    <row r="9" ht="14.55" spans="8:11">
+      <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1923,22 +2505,23 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="11" max="11" width="70.625" customWidth="1"/>
+    <col min="11" max="11" width="70.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1963,13 +2546,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1997,14 +2580,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="179.4" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2027,7 +2610,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:10">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -2041,730 +2624,742 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="3" t="s">
+    <row r="5" ht="14.55" spans="8:11">
+      <c r="H5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="3" t="s">
+    <row r="6" ht="14.55" spans="8:11">
+      <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="3" t="s">
+    <row r="7" ht="14.55" spans="8:11">
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="3" t="s">
+    <row r="8" ht="14.55" spans="8:11">
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="3" t="s">
+    <row r="9" ht="14.55" spans="8:11">
+      <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="3" t="s">
+    <row r="10" ht="14.55" spans="8:11">
+      <c r="H10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="H11" s="3" t="s">
+    <row r="11" ht="14.55" spans="8:11">
+      <c r="H11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="H12" s="3" t="s">
+    <row r="12" ht="14.55" spans="8:11">
+      <c r="H12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="H13" s="3" t="s">
+    <row r="13" ht="14.55" spans="8:11">
+      <c r="H13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="H14" s="3" t="s">
+    <row r="14" ht="14.55" spans="8:11">
+      <c r="H14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="H15" s="3" t="s">
+    <row r="15" ht="14.55" spans="8:11">
+      <c r="H15" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="3" t="s">
+    <row r="16" ht="14.55" spans="8:11">
+      <c r="H16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="8:11">
-      <c r="H17" s="3" t="s">
+    <row r="17" ht="14.55" spans="8:11">
+      <c r="H17" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J17">
         <v>13</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="3" t="s">
+    <row r="18" ht="14.55" spans="8:11">
+      <c r="H18" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="3" t="s">
+    <row r="19" ht="14.55" spans="8:11">
+      <c r="H19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="3" t="s">
+    <row r="20" ht="14.55" spans="8:11">
+      <c r="H20" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="3" t="s">
+    <row r="21" ht="14.55" spans="8:11">
+      <c r="H21" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J21">
         <v>17</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="3" t="s">
+    <row r="22" ht="14.55" spans="8:11">
+      <c r="H22" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J22">
         <v>18</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="3" t="s">
+    <row r="23" ht="14.55" spans="8:11">
+      <c r="H23" s="4" t="s">
         <v>89</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="8:11">
-      <c r="H24" s="3" t="s">
+    <row r="24" ht="14.55" spans="8:11">
+      <c r="H24" s="4" t="s">
         <v>91</v>
       </c>
       <c r="J24">
         <v>20</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="8:11">
-      <c r="H25" s="3" t="s">
+    <row r="25" ht="14.55" spans="8:11">
+      <c r="H25" s="4" t="s">
         <v>93</v>
       </c>
       <c r="J25">
         <v>21</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="8:11">
-      <c r="H26" s="3" t="s">
+    <row r="26" ht="14.55" spans="8:11">
+      <c r="H26" s="4" t="s">
         <v>95</v>
       </c>
       <c r="J26">
         <v>22</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="3" t="s">
+    <row r="27" ht="14.55" spans="8:11">
+      <c r="H27" s="4" t="s">
         <v>97</v>
       </c>
       <c r="J27">
         <v>23</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="8:11">
-      <c r="H28" s="3" t="s">
+    <row r="28" ht="14.55" spans="8:11">
+      <c r="H28" s="4" t="s">
         <v>99</v>
       </c>
       <c r="J28">
         <v>24</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="3" t="s">
+    <row r="29" ht="14.55" spans="8:11">
+      <c r="H29" s="4" t="s">
         <v>101</v>
       </c>
       <c r="J29">
         <v>25</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="8:11">
-      <c r="H30" s="3" t="s">
+    <row r="30" ht="14.55" spans="8:11">
+      <c r="H30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="J30">
         <v>26</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="8:11">
-      <c r="H31" s="3" t="s">
+    <row r="31" ht="14.55" spans="8:11">
+      <c r="H31" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J31">
         <v>27</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="3" t="s">
+    <row r="32" ht="14.55" spans="8:11">
+      <c r="H32" s="4" t="s">
         <v>107</v>
       </c>
       <c r="J32">
         <v>28</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="8:11">
-      <c r="H33" s="3" t="s">
+    <row r="33" ht="14.55" spans="8:11">
+      <c r="H33" s="4" t="s">
         <v>109</v>
       </c>
       <c r="J33">
         <v>29</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="8:11">
-      <c r="H34" s="3" t="s">
+    <row r="34" ht="14.55" spans="8:11">
+      <c r="H34" s="4" t="s">
         <v>111</v>
       </c>
       <c r="J34">
         <v>30</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="8:11">
-      <c r="H35" s="3" t="s">
+    <row r="35" ht="14.55" spans="8:11">
+      <c r="H35" s="4" t="s">
         <v>113</v>
       </c>
       <c r="J35">
         <v>31</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="8:11">
-      <c r="H36" s="3" t="s">
+    <row r="36" ht="14.55" spans="8:11">
+      <c r="H36" s="4" t="s">
         <v>115</v>
       </c>
       <c r="J36">
         <v>32</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="8:11">
-      <c r="H37" s="9" t="s">
+    <row r="37" ht="14.55" spans="8:11">
+      <c r="H37" s="16" t="s">
         <v>117</v>
       </c>
       <c r="J37">
         <v>33</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="8:11">
-      <c r="H38" s="3" t="s">
+    <row r="38" ht="14.55" spans="8:11">
+      <c r="H38" s="4" t="s">
         <v>119</v>
       </c>
       <c r="J38">
         <v>34</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="8:11">
-      <c r="H39" s="3" t="s">
+    <row r="39" ht="14.55" spans="8:11">
+      <c r="H39" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J39">
         <v>35</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="8:11">
-      <c r="H40" s="3" t="s">
+    <row r="40" ht="14.55" spans="8:11">
+      <c r="H40" s="4" t="s">
         <v>123</v>
       </c>
       <c r="J40">
         <v>36</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
-      <c r="H41" s="3" t="s">
+    <row r="41" ht="14.55" spans="8:11">
+      <c r="H41" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J41">
         <v>37</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="8:11">
-      <c r="H42" s="3" t="s">
+    <row r="42" ht="14.55" spans="8:11">
+      <c r="H42" s="4" t="s">
         <v>127</v>
       </c>
       <c r="J42">
         <v>38</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="8:11">
-      <c r="H43" s="3" t="s">
+    <row r="43" ht="14.55" spans="8:11">
+      <c r="H43" s="4" t="s">
         <v>129</v>
       </c>
       <c r="J43">
         <v>39</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="8:11">
-      <c r="H44" s="3" t="s">
+    <row r="44" ht="14.55" spans="8:11">
+      <c r="H44" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J44">
         <v>40</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="8:11">
-      <c r="H45" s="3" t="s">
+    <row r="45" ht="14.55" spans="8:11">
+      <c r="H45" s="4" t="s">
         <v>133</v>
       </c>
       <c r="J45">
         <v>41</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="8:11">
-      <c r="H46" s="3" t="s">
+    <row r="46" ht="14.55" spans="8:11">
+      <c r="H46" s="4" t="s">
         <v>135</v>
       </c>
       <c r="J46">
         <v>42</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="8:11">
-      <c r="H47" s="3" t="s">
+    <row r="47" ht="14.55" spans="8:11">
+      <c r="H47" s="4" t="s">
         <v>137</v>
       </c>
       <c r="J47">
         <v>43</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="8:11">
-      <c r="H48" s="3" t="s">
+    <row r="48" ht="14.55" spans="8:11">
+      <c r="H48" s="4" t="s">
         <v>139</v>
       </c>
       <c r="J48">
         <v>44</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="8:11">
-      <c r="H49" s="3" t="s">
+    <row r="49" ht="14.55" spans="8:11">
+      <c r="H49" s="4" t="s">
         <v>141</v>
       </c>
       <c r="J49">
         <v>45</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="3" t="s">
+    <row r="50" ht="14.55" spans="8:11">
+      <c r="H50" s="4" t="s">
         <v>143</v>
       </c>
       <c r="J50">
         <v>46</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="3" t="s">
+    <row r="51" ht="14.55" spans="8:11">
+      <c r="H51" s="4" t="s">
         <v>145</v>
       </c>
       <c r="J51">
         <v>47</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="3" t="s">
+    <row r="52" ht="14.55" spans="8:11">
+      <c r="H52" s="4" t="s">
         <v>147</v>
       </c>
       <c r="J52">
         <v>48</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="3" t="s">
+    <row r="53" ht="14.55" spans="8:11">
+      <c r="H53" s="4" t="s">
         <v>149</v>
       </c>
       <c r="J53">
         <v>49</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="3" t="s">
+    <row r="54" ht="14.55" spans="8:11">
+      <c r="H54" s="4" t="s">
         <v>151</v>
       </c>
       <c r="J54">
         <v>50</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="3" t="s">
+    <row r="55" ht="14.55" spans="8:11">
+      <c r="H55" s="4" t="s">
         <v>153</v>
       </c>
       <c r="J55">
         <v>51</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="3" t="s">
+    <row r="56" ht="14.55" spans="8:11">
+      <c r="H56" s="4" t="s">
         <v>155</v>
       </c>
       <c r="J56">
         <v>52</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="8:11">
-      <c r="H57" s="3" t="s">
+    <row r="57" ht="14.55" spans="8:11">
+      <c r="H57" s="4" t="s">
         <v>157</v>
       </c>
       <c r="J57">
         <v>53</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="8:11">
-      <c r="H58" s="3" t="s">
+    <row r="58" ht="14.55" spans="8:11">
+      <c r="H58" s="4" t="s">
         <v>159</v>
       </c>
       <c r="J58">
         <v>54</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="8:11">
-      <c r="H59" s="3" t="s">
+    <row r="59" ht="14.55" spans="8:11">
+      <c r="H59" s="4" t="s">
         <v>161</v>
       </c>
       <c r="J59">
         <v>55</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="8:11">
-      <c r="H60" s="3" t="s">
+    <row r="60" ht="14.55" spans="8:11">
+      <c r="H60" s="4" t="s">
         <v>163</v>
       </c>
       <c r="J60">
         <v>56</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="8:11">
-      <c r="H61" s="3" t="s">
+    <row r="61" ht="14.55" spans="8:11">
+      <c r="H61" s="4" t="s">
         <v>165</v>
       </c>
       <c r="J61">
         <v>57</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="8:11">
-      <c r="H62" s="3" t="s">
+    <row r="62" ht="14.55" spans="8:11">
+      <c r="H62" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J62">
         <v>58</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="8:11">
-      <c r="H63" s="3" t="s">
+    <row r="63" ht="14.55" spans="8:11">
+      <c r="H63" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J63">
         <v>59</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="8:11">
-      <c r="H64" s="3" t="s">
+    <row r="64" ht="14.55" spans="8:11">
+      <c r="H64" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J64">
         <v>60</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="8:11">
-      <c r="H65" s="3" t="s">
+    <row r="65" ht="14.55" spans="8:11">
+      <c r="H65" s="4" t="s">
         <v>173</v>
       </c>
       <c r="J65">
         <v>61</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="8:11">
-      <c r="H66" s="3" t="s">
+    <row r="66" ht="14.55" spans="8:11">
+      <c r="H66" s="4" t="s">
         <v>175</v>
       </c>
       <c r="J66">
         <v>62</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="8:11">
-      <c r="H67" s="3" t="s">
+    <row r="67" ht="14.55" spans="8:11">
+      <c r="H67" s="4" t="s">
         <v>177</v>
       </c>
       <c r="J67">
         <v>63</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="8:11">
-      <c r="H68" s="10" t="s">
+    <row r="68" ht="14.55" spans="8:11">
+      <c r="H68" s="17" t="s">
         <v>179</v>
       </c>
       <c r="J68">
         <v>64</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="17" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11">
+      <c r="H69" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J69">
+        <v>65</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="28.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2789,13 +3384,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2823,14 +3418,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="180.15" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2853,201 +3448,202 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="8:8">
       <c r="H5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
       <c r="H10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="8:8">
       <c r="H11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="8:8">
       <c r="H12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="8:8">
       <c r="H13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="8:8">
       <c r="H14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="H15" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="8" t="s">
-        <v>187</v>
+    <row r="15" spans="8:8">
+      <c r="H15" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="8:8">
-      <c r="H17" s="8" t="s">
-        <v>188</v>
+      <c r="H17" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="8:8">
-      <c r="H18" s="14" t="s">
-        <v>239</v>
+      <c r="H18" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="8:8">
-      <c r="H19" s="14" t="s">
-        <v>232</v>
+      <c r="H19" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="8:8">
-      <c r="H21" s="14" t="s">
-        <v>218</v>
+      <c r="H21" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="8:8">
-      <c r="H22" s="14" t="s">
-        <v>219</v>
+      <c r="H22" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="8:8">
-      <c r="H23" s="16" t="s">
-        <v>220</v>
+      <c r="H23" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="8:8">
-      <c r="H24" s="14" t="s">
-        <v>221</v>
+      <c r="H24" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="18" t="s">
-        <v>226</v>
+      <c r="H25" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="8:8">
-      <c r="H26" s="14" t="s">
-        <v>222</v>
+      <c r="H26" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="8:8">
-      <c r="H27" s="17" t="s">
-        <v>223</v>
+      <c r="H27" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="8:8">
-      <c r="H28" s="15" t="s">
-        <v>224</v>
+      <c r="H28" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="15" t="s">
-        <v>229</v>
+      <c r="H29" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="15" t="s">
-        <v>240</v>
+      <c r="H30" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="8:8">
-      <c r="H32" s="15" t="s">
-        <v>227</v>
+      <c r="H32" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34" s="19" t="s">
-        <v>230</v>
+      <c r="H34" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="15" t="s">
-        <v>233</v>
+      <c r="H36" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3072,13 +3668,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3106,14 +3702,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="180.15" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3136,9 +3732,9 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3146,61 +3742,62 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>191</v>
+      <c r="H4" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="3" t="s">
-        <v>192</v>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="14.55" spans="8:11">
+      <c r="H5" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="3" t="s">
-        <v>193</v>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" ht="14.55" spans="8:11">
+      <c r="H6" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="3" t="s">
-        <v>194</v>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="14.55" spans="8:11">
+      <c r="H7" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="J7">
         <v>8</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="27.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3225,13 +3822,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3259,14 +3856,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="179.4" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3289,9 +3886,9 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="15" t="s">
-        <v>234</v>
+    <row r="4" spans="2:10">
+      <c r="B4" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3299,32 +3896,32 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>238</v>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="15" t="s">
-        <v>236</v>
+    <row r="5" spans="8:10">
+      <c r="H5" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="15" t="s">
-        <v>235</v>
+    <row r="6" spans="8:10">
+      <c r="H6" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="15" t="s">
-        <v>237</v>
+    <row r="7" spans="8:10">
+      <c r="H7" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3334,22 +3931,23 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="19.3796296296296" customWidth="1"/>
     <col min="11" max="11" width="78.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3375,13 +3973,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3409,14 +4007,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="171">
+    <row r="3" ht="180.15" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3439,149 +4037,149 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="H4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="K4" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" ht="14.55" spans="8:11">
+      <c r="H5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K5" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" ht="14.55" spans="8:11">
+      <c r="H6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="5">
         <v>3</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="K6" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" ht="14.55" spans="8:11">
+      <c r="H7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="3" t="s">
+      <c r="K7" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" ht="14.55" spans="8:11">
+      <c r="H8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" ht="14.55" spans="8:11">
+      <c r="H9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="5">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" ht="14.55" spans="8:11">
+      <c r="H10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" ht="14.55" spans="8:11">
+      <c r="H11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" ht="14.55" spans="8:11">
+      <c r="H12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="5">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" ht="14.55" spans="8:11">
+      <c r="H13" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="4">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="3" t="s">
+      <c r="J13" s="5">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" ht="14.55" spans="8:11">
+      <c r="H14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="4">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="H11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J11" s="4">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="H12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="4">
-        <v>9</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="H13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="4">
-        <v>10</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="H14" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>11</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="H15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="K14" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" ht="14.55" spans="8:11">
+      <c r="H15" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="5">
         <v>12</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>217</v>
+      <c r="K15" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
   <si>
     <t>##var</t>
   </si>
@@ -579,10 +579,16 @@
     <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
   </si>
   <si>
-    <t>送你一朵小花花</t>
-  </si>
-  <si>
-    <t>送给对手一朵珍藏的花。</t>
+    <t>开发送你花</t>
+  </si>
+  <si>
+    <t>送给对手一朵珍藏的花，对手会因此得到心灵上的治愈。</t>
+  </si>
+  <si>
+    <t>策划的帮助</t>
+  </si>
+  <si>
+    <t>消耗。\n策划选择来帮你一下。\n己方选手恢复10%的最大生命。</t>
   </si>
   <si>
     <t>BattleBuffEnum</t>
@@ -803,7 +809,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,13 +819,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -999,12 +998,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
@@ -1017,9 +1010,9 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1436,137 +1429,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,18 +1578,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1606,15 +1602,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2316,7 +2310,7 @@
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2439,7 +2433,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="J4">
@@ -2480,24 +2474,24 @@
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2513,10 +2507,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3335,8 +3329,19 @@
       <c r="J69">
         <v>65</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="K69" s="19" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11">
+      <c r="H70" t="s">
+        <v>183</v>
+      </c>
+      <c r="J70">
+        <v>66</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3455,7 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3470,22 +3475,22 @@
     </row>
     <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="8:8">
@@ -3515,112 +3520,112 @@
     </row>
     <row r="15" spans="8:8">
       <c r="H15" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +3739,7 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3743,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3752,7 +3757,7 @@
     </row>
     <row r="5" ht="14.55" spans="8:11">
       <c r="H5" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3761,7 +3766,7 @@
     </row>
     <row r="6" ht="14.55" spans="8:11">
       <c r="H6" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3770,7 +3775,7 @@
     </row>
     <row r="7" ht="14.55" spans="8:11">
       <c r="H7" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3888,7 +3893,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3905,7 +3910,7 @@
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3913,7 +3918,7 @@
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3921,7 +3926,7 @@
     </row>
     <row r="7" spans="8:10">
       <c r="H7" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -4039,140 +4044,140 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" ht="14.55" spans="8:11">
       <c r="H5" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="8:11">
       <c r="H6" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" ht="14.55" spans="8:11">
       <c r="H7" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J7" s="5">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
       <c r="H8" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J8" s="5">
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
       <c r="H9" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J9" s="5">
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" ht="14.55" spans="8:11">
       <c r="H10" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" ht="14.55" spans="8:11">
       <c r="H11" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J11" s="5">
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="14.55" spans="8:11">
       <c r="H12" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" ht="14.55" spans="8:11">
       <c r="H13" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J13" s="5">
         <v>10</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" ht="14.55" spans="8:11">
       <c r="H14" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J14" s="5">
         <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" ht="14.55" spans="8:11">
       <c r="H15" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J15" s="5">
         <v>12</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="247">
   <si>
     <t>##var</t>
   </si>
@@ -589,6 +589,18 @@
   </si>
   <si>
     <t>消耗。\n策划选择来帮你一下。\n己方选手恢复10%的最大生命。</t>
+  </si>
+  <si>
+    <t>美术的手眼</t>
+  </si>
+  <si>
+    <t>消耗。\n美术清澈的眼睛注视对手，手却快速地偷偷摸牌。\n己方选手防御力减少20点，然后抽四张牌。</t>
+  </si>
+  <si>
+    <t>突袭</t>
+  </si>
+  <si>
+    <t>技能优先级：6。\n趁对手没准备好的时候快速发动攻击。</t>
   </si>
   <si>
     <t>BattleBuffEnum</t>
@@ -2507,10 +2519,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3329,7 +3341,7 @@
       <c r="J69">
         <v>65</v>
       </c>
-      <c r="K69" s="19" t="s">
+      <c r="K69" s="18" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3340,8 +3352,30 @@
       <c r="J70">
         <v>66</v>
       </c>
-      <c r="K70" s="19" t="s">
+      <c r="K70" s="18" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11">
+      <c r="H71" t="s">
+        <v>185</v>
+      </c>
+      <c r="J71">
+        <v>67</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11">
+      <c r="H72" t="s">
+        <v>187</v>
+      </c>
+      <c r="J72">
+        <v>68</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3489,7 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3475,22 +3509,22 @@
     </row>
     <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="8:8">
@@ -3520,112 +3554,112 @@
     </row>
     <row r="15" spans="8:8">
       <c r="H15" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3773,7 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3748,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3757,7 +3791,7 @@
     </row>
     <row r="5" ht="14.55" spans="8:11">
       <c r="H5" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3766,7 +3800,7 @@
     </row>
     <row r="6" ht="14.55" spans="8:11">
       <c r="H6" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3775,7 +3809,7 @@
     </row>
     <row r="7" ht="14.55" spans="8:11">
       <c r="H7" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3893,7 +3927,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3910,7 +3944,7 @@
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3918,7 +3952,7 @@
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3926,7 +3960,7 @@
     </row>
     <row r="7" spans="8:10">
       <c r="H7" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -4044,140 +4078,140 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="14.55" spans="8:11">
       <c r="H5" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="8:11">
       <c r="H6" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" ht="14.55" spans="8:11">
       <c r="H7" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J7" s="5">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
       <c r="H8" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J8" s="5">
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
       <c r="H9" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J9" s="5">
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" ht="14.55" spans="8:11">
       <c r="H10" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" ht="14.55" spans="8:11">
       <c r="H11" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J11" s="5">
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" ht="14.55" spans="8:11">
       <c r="H12" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" ht="14.55" spans="8:11">
       <c r="H13" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J13" s="5">
         <v>10</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" ht="14.55" spans="8:11">
       <c r="H14" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J14" s="5">
         <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" ht="14.55" spans="8:11">
       <c r="H15" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J15" s="5">
         <v>12</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -363,6 +363,12 @@
     <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
   </si>
   <si>
+    <t>突袭</t>
+  </si>
+  <si>
+    <t>技能优先级：6。\n趁对手没准备好的时候快速发动攻击。</t>
+  </si>
+  <si>
     <t>寻找弱点</t>
   </si>
   <si>
@@ -595,12 +601,6 @@
   </si>
   <si>
     <t>消耗。\n美术清澈的眼睛注视对手，手却快速地偷偷摸牌。\n己方选手防御力减少20点，然后抽四张牌。</t>
-  </si>
-  <si>
-    <t>突袭</t>
-  </si>
-  <si>
-    <t>技能优先级：6。\n趁对手没准备好的时候快速发动攻击。</t>
   </si>
   <si>
     <t>BattleBuffEnum</t>
@@ -1010,6 +1010,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
@@ -1020,12 +1026,6 @@
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1571,7 +1571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,11 +1617,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2322,7 +2321,7 @@
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2445,7 +2444,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="J4">
@@ -2486,24 +2485,24 @@
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2521,8 +2520,8 @@
   <sheetPr/>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2916,7 +2915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" ht="14.55" spans="8:11">
+    <row r="31" spans="8:11">
       <c r="H31" s="4" t="s">
         <v>105</v>
       </c>
@@ -2939,13 +2938,13 @@
       </c>
     </row>
     <row r="33" ht="14.55" spans="8:11">
-      <c r="H33" s="4" t="s">
+      <c r="H33" t="s">
         <v>109</v>
       </c>
       <c r="J33">
         <v>29</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2983,7 +2982,7 @@
       </c>
     </row>
     <row r="37" ht="14.55" spans="8:11">
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="4" t="s">
         <v>117</v>
       </c>
       <c r="J37">
@@ -2994,7 +2993,7 @@
       </c>
     </row>
     <row r="38" ht="14.55" spans="8:11">
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J38">
@@ -3324,17 +3323,17 @@
       </c>
     </row>
     <row r="68" ht="14.55" spans="8:11">
-      <c r="H68" s="17" t="s">
+      <c r="H68" s="4" t="s">
         <v>179</v>
       </c>
       <c r="J68">
         <v>64</v>
       </c>
-      <c r="K68" s="17" t="s">
+      <c r="K68" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="8:11">
+    <row r="69" ht="14.55" spans="8:11">
       <c r="H69" s="18" t="s">
         <v>181</v>
       </c>
@@ -3346,13 +3345,13 @@
       </c>
     </row>
     <row r="70" spans="8:11">
-      <c r="H70" t="s">
+      <c r="H70" s="17" t="s">
         <v>183</v>
       </c>
       <c r="J70">
         <v>66</v>
       </c>
-      <c r="K70" s="18" t="s">
+      <c r="K70" s="17" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3363,7 +3362,7 @@
       <c r="J71">
         <v>67</v>
       </c>
-      <c r="K71" s="19" t="s">
+      <c r="K71" s="17" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3374,7 +3373,7 @@
       <c r="J72">
         <v>68</v>
       </c>
-      <c r="K72" s="19" t="s">
+      <c r="K72" s="17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3529,27 +3528,27 @@
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="8:8">
       <c r="H11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="8:8">

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="694" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="8735" tabRatio="694" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="255">
   <si>
     <t>##var</t>
   </si>
@@ -597,10 +597,34 @@
     <t>消耗。\n策划选择来帮你一下。\n己方选手恢复10%的最大生命。</t>
   </si>
   <si>
-    <t>美术的手眼</t>
+    <t>美术之眼</t>
   </si>
   <si>
     <t>消耗。\n美术清澈的眼睛注视对手，手却快速地偷偷摸牌。\n己方选手防御力减少20点，然后抽四张牌。</t>
+  </si>
+  <si>
+    <t>美术的大手</t>
+  </si>
+  <si>
+    <t>消耗。\n角色稿子打回去重画吧......\n弃置一张牌，然后摸一张牌。</t>
+  </si>
+  <si>
+    <t>平等创死所有人</t>
+  </si>
+  <si>
+    <t>消耗。\nUI老师的愤怒值达到了最高！\n开着保时捷Macan创向对方选手，随机弃置己方和对手各一张牌。</t>
+  </si>
+  <si>
+    <t>恶意Bug</t>
+  </si>
+  <si>
+    <t>消耗。\n@*****!%#.....\n???@!)(&amp;&amp;##</t>
+  </si>
+  <si>
+    <t>东流全景声</t>
+  </si>
+  <si>
+    <t>消耗。\n向敌人发起3D环绕的音波攻击。\n然而距离太远听不到......</t>
   </si>
   <si>
     <t>BattleBuffEnum</t>
@@ -821,7 +845,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +887,12 @@
     <font>
       <sz val="9.8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1441,137 +1471,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,6 +1650,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1952,7 +1986,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2163,7 +2197,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L11"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="13.8"/>
@@ -2321,7 +2355,7 @@
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="23" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2343,7 +2377,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2444,7 +2478,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J4">
@@ -2485,24 +2519,24 @@
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="22" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="22" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2518,10 +2552,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2915,7 +2949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="8:11">
+    <row r="31" ht="14.55" spans="8:11">
       <c r="H31" s="4" t="s">
         <v>105</v>
       </c>
@@ -3376,6 +3410,56 @@
       <c r="K72" s="17" t="s">
         <v>188</v>
       </c>
+    </row>
+    <row r="73" spans="8:11">
+      <c r="H73" t="s">
+        <v>189</v>
+      </c>
+      <c r="J73">
+        <v>69</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11">
+      <c r="H74" t="s">
+        <v>191</v>
+      </c>
+      <c r="J74">
+        <v>70</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11">
+      <c r="H75" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I75" s="19"/>
+      <c r="J75">
+        <v>71</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11">
+      <c r="H76" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I76" s="19"/>
+      <c r="J76">
+        <v>72</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10">
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3392,7 +3476,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3488,7 +3572,7 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3508,22 +3592,22 @@
     </row>
     <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="8:8">
@@ -3553,112 +3637,112 @@
     </row>
     <row r="15" spans="8:8">
       <c r="H15" s="9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="11" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="12" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="13" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="14" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="15" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3760,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -3772,7 +3856,7 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3781,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3790,7 +3874,7 @@
     </row>
     <row r="5" ht="14.55" spans="8:11">
       <c r="H5" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3799,7 +3883,7 @@
     </row>
     <row r="6" ht="14.55" spans="8:11">
       <c r="H6" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3808,7 +3892,7 @@
     </row>
     <row r="7" ht="14.55" spans="8:11">
       <c r="H7" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3830,7 +3914,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -3926,7 +4010,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3943,7 +4027,7 @@
     </row>
     <row r="5" spans="8:10">
       <c r="H5" s="6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -3951,7 +4035,7 @@
     </row>
     <row r="6" spans="8:10">
       <c r="H6" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -3959,7 +4043,7 @@
     </row>
     <row r="7" spans="8:10">
       <c r="H7" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -3980,7 +4064,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L5"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -4077,140 +4161,140 @@
     </row>
     <row r="4" ht="14.55" spans="2:11">
       <c r="B4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" ht="14.55" spans="8:11">
       <c r="H5" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J5" s="5">
         <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" ht="14.55" spans="8:11">
       <c r="H6" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" ht="14.55" spans="8:11">
       <c r="H7" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J7" s="5">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
       <c r="H8" s="4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J8" s="5">
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
       <c r="H9" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J9" s="5">
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" ht="14.55" spans="8:11">
       <c r="H10" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J10" s="5">
         <v>7</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" ht="14.55" spans="8:11">
       <c r="H11" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="J11" s="5">
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" ht="14.55" spans="8:11">
       <c r="H12" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J12" s="5">
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" ht="14.55" spans="8:11">
       <c r="H13" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J13" s="5">
         <v>10</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" ht="14.55" spans="8:11">
       <c r="H14" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J14" s="5">
         <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" ht="14.55" spans="8:11">
       <c r="H15" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J15" s="5">
         <v>12</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Datas/__enums__.xlsx
+++ b/Excels/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8735" tabRatio="694" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="694" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HuluEnum" sheetId="6" r:id="rId1"/>
@@ -363,244 +363,244 @@
     <t>挥舞爪子快速进攻。可能会造成0~5次伤害。</t>
   </si>
   <si>
+    <t>寻找弱点</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能造成伤害变为1.5倍。</t>
+  </si>
+  <si>
+    <t>快躲开</t>
+  </si>
+  <si>
+    <t>己方选手下一次被技能攻击时有60%的几率不会受到伤害。</t>
+  </si>
+  <si>
+    <t>站起来</t>
+  </si>
+  <si>
+    <t>己方选手本回合中不会被击败，最小生命值为1。</t>
+  </si>
+  <si>
+    <t>疗伤药膏</t>
+  </si>
+  <si>
+    <t>消耗。己方选手恢复100点生命值。</t>
+  </si>
+  <si>
+    <t>轮滑技巧</t>
+  </si>
+  <si>
+    <t>己方选手下一次使用技能必定优先攻击。</t>
+  </si>
+  <si>
+    <t>重整思路</t>
+  </si>
+  <si>
+    <t>弃置所有手牌，然后抽取等量手牌。</t>
+  </si>
+  <si>
+    <t>战斗灵感</t>
+  </si>
+  <si>
+    <t>消耗。抽三张牌。</t>
+  </si>
+  <si>
+    <t>规避弱点</t>
+  </si>
+  <si>
+    <t>己方选手本回合中受到的伤害变为0.5倍。</t>
+  </si>
+  <si>
+    <t>喝茶</t>
+  </si>
+  <si>
+    <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>龙之返照</t>
+  </si>
+  <si>
+    <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张“水流喷射”；如果牌组中没有“水流喷射”，你抽一张牌。</t>
+  </si>
+  <si>
+    <t>竖起逆鳞</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
+  </si>
+  <si>
+    <t>海洋的宝藏</t>
+  </si>
+  <si>
+    <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为2倍；否则你抽两张牌。</t>
+  </si>
+  <si>
+    <t>击打地面</t>
+  </si>
+  <si>
+    <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加80点。</t>
+  </si>
+  <si>
+    <t>共鸣</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“大地之力”；如果牌组中的技能牌数量不大于4张，向你的牌组中添加一张“大地之力”。</t>
+  </si>
+  <si>
+    <t>生命绽放</t>
+  </si>
+  <si>
+    <t>如果己方选手的适应力不小于50点，己方选手下一次使用技能造成的伤害变为2倍；否则恢复50点生命值。</t>
+  </si>
+  <si>
+    <t>种树</t>
+  </si>
+  <si>
+    <t>消耗。如果己方选手的速度小于20，己方选手的适应力增加10点，最多可以叠加到20点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>穷追猛打</t>
+  </si>
+  <si>
+    <t>消耗。从牌组中抽取一张“迅雷”，己方选手下一次使用技能造成的伤害变为X倍，X为该技能的技能优先级。</t>
+  </si>
+  <si>
+    <t>后继有力</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
+  </si>
+  <si>
+    <t>偷吃</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“喙啄”。本回合中，己方选手使用“喙啄”时，对手弃置一张手牌。</t>
+  </si>
+  <si>
+    <t>吹飞</t>
+  </si>
+  <si>
+    <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于0，直接击败敌方选手。然后结束当前回合。</t>
+  </si>
+  <si>
+    <t>涂毒</t>
+  </si>
+  <si>
+    <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
+  </si>
+  <si>
+    <t>下毒</t>
+  </si>
+  <si>
+    <t>给对方手牌中的三张牌“下毒”。对方使用或弃置被下毒的牌时，敌方选手受到100点伤害，此伤害无视防御力和适应力。</t>
+  </si>
+  <si>
+    <t>张开大嘴</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吞吐”。己方选手下一次使用技能的追加效果几率改为100%。</t>
+  </si>
+  <si>
+    <t>咽下去</t>
+  </si>
+  <si>
+    <t>本回合中，消耗对手弃置的牌。</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“吐火”。己方选手下一次使用技能效果不好时，将伤害倍率改为1.5。</t>
+  </si>
+  <si>
+    <t>永不停歇</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“轰隆隆隆隆”。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
+  </si>
+  <si>
+    <t>掌握节奏</t>
+  </si>
+  <si>
+    <t>从牌组中抽取一张“咚咚锵”。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
+  </si>
+  <si>
+    <t>风之语</t>
+  </si>
+  <si>
+    <t>本回合中，对手弃置手牌时，你抽取等量的牌。</t>
+  </si>
+  <si>
+    <t>呼啸而过</t>
+  </si>
+  <si>
+    <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高20点。</t>
+  </si>
+  <si>
+    <t>晶体化</t>
+  </si>
+  <si>
+    <t>消耗。本回合中，己方选手属性发生变化时，会保留原本的属性。</t>
+  </si>
+  <si>
+    <t>战术规划</t>
+  </si>
+  <si>
+    <t>消耗。从你的牌库中抽取两张指挥牌。</t>
+  </si>
+  <si>
+    <t>挥洒草种</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为草地。</t>
+  </si>
+  <si>
+    <t>扬沙</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为沙漠。</t>
+  </si>
+  <si>
+    <t>喷水</t>
+  </si>
+  <si>
+    <t>消耗。将本局对战的战场改为海洋。</t>
+  </si>
+  <si>
+    <t>轮转</t>
+  </si>
+  <si>
+    <t>消耗。选择一名其他己方选手，更换当前选手下场，并更换该选手上场。</t>
+  </si>
+  <si>
+    <t>保时捷的赞助</t>
+  </si>
+  <si>
+    <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
+  </si>
+  <si>
+    <t>开发送你花</t>
+  </si>
+  <si>
+    <t>送给对手一朵珍藏的花，对手会因此得到心灵上的治愈。</t>
+  </si>
+  <si>
+    <t>策划的帮助</t>
+  </si>
+  <si>
+    <t>消耗。\n策划选择来帮你一下。\n己方选手恢复10%的最大生命。</t>
+  </si>
+  <si>
+    <t>美术之眼</t>
+  </si>
+  <si>
+    <t>消耗。\n美术清澈的眼睛注视对手，手却快速地偷偷摸牌。\n己方选手防御力减少20点，然后抽四张牌。</t>
+  </si>
+  <si>
     <t>突袭</t>
   </si>
   <si>
     <t>技能优先级：6。\n趁对手没准备好的时候快速发动攻击。</t>
-  </si>
-  <si>
-    <t>寻找弱点</t>
-  </si>
-  <si>
-    <t>己方选手下一次使用技能造成伤害变为1.5倍。</t>
-  </si>
-  <si>
-    <t>快躲开</t>
-  </si>
-  <si>
-    <t>己方选手下一次被技能攻击时有60%的几率不会受到伤害。</t>
-  </si>
-  <si>
-    <t>站起来</t>
-  </si>
-  <si>
-    <t>己方选手本回合中不会被击败，最小生命值为1。</t>
-  </si>
-  <si>
-    <t>疗伤药膏</t>
-  </si>
-  <si>
-    <t>消耗。己方选手恢复100点生命值。</t>
-  </si>
-  <si>
-    <t>轮滑技巧</t>
-  </si>
-  <si>
-    <t>己方选手下一次使用技能必定优先攻击。</t>
-  </si>
-  <si>
-    <t>重整思路</t>
-  </si>
-  <si>
-    <t>弃置所有手牌，然后抽取等量手牌。</t>
-  </si>
-  <si>
-    <t>战斗灵感</t>
-  </si>
-  <si>
-    <t>消耗。抽三张牌。</t>
-  </si>
-  <si>
-    <t>规避弱点</t>
-  </si>
-  <si>
-    <t>己方选手本回合中受到的伤害变为0.5倍。</t>
-  </si>
-  <si>
-    <t>喝茶</t>
-  </si>
-  <si>
-    <t>消耗。本回合中双方玩家都不能使用牌，己方选手恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>龙之返照</t>
-  </si>
-  <si>
-    <t>己方选手恢复若干点生命，直到满血；己方回合结束时，受到等量伤害。从牌组中抽取一张“水流喷射”；如果牌组中没有“水流喷射”，你抽一张牌。</t>
-  </si>
-  <si>
-    <t>竖起逆鳞</t>
-  </si>
-  <si>
-    <t>消耗。本回合中，己方选手不会受到己方卡牌造成伤害。</t>
-  </si>
-  <si>
-    <t>海洋的宝藏</t>
-  </si>
-  <si>
-    <t>如果己方选手处于满血状态，己方选手下一次使用技能造成伤害变为2倍；否则你抽两张牌。</t>
-  </si>
-  <si>
-    <t>击打地面</t>
-  </si>
-  <si>
-    <t>消耗手牌中的所有技能牌。每消耗一张技能牌，己方选手下一次造成的伤害便增加80点。</t>
-  </si>
-  <si>
-    <t>共鸣</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“大地之力”；如果牌组中的技能牌数量不大于4张，向你的牌组中添加一张“大地之力”。</t>
-  </si>
-  <si>
-    <t>生命绽放</t>
-  </si>
-  <si>
-    <t>如果己方选手的适应力不小于50点，己方选手下一次使用技能造成的伤害变为2倍；否则恢复50点生命值。</t>
-  </si>
-  <si>
-    <t>种树</t>
-  </si>
-  <si>
-    <t>消耗。如果己方选手的速度小于20，己方选手的适应力增加10点，最多可以叠加到20点，并且不计入己方选手的最大适应力。然后结束当前回合。</t>
-  </si>
-  <si>
-    <t>穷追猛打</t>
-  </si>
-  <si>
-    <t>消耗。从牌组中抽取一张“迅雷”，己方选手下一次使用技能造成的伤害变为X倍，X为该技能的技能优先级。</t>
-  </si>
-  <si>
-    <t>后继有力</t>
-  </si>
-  <si>
-    <t>本回合中，己方选手下一次使用技能卡后，回合不会结束，并且可以额外使用一张卡牌。</t>
-  </si>
-  <si>
-    <t>偷吃</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“喙啄”。本回合中，己方选手使用“喙啄”时，对手弃置一张手牌。</t>
-  </si>
-  <si>
-    <t>吹飞</t>
-  </si>
-  <si>
-    <t>消耗。双方玩家各弃置两张手牌，然后若对手的手牌数量不大于0，直接击败敌方选手。然后结束当前回合。</t>
-  </si>
-  <si>
-    <t>涂毒</t>
-  </si>
-  <si>
-    <t>己方选手下一次受到伤害时，敌方选手也会受到等量伤害。</t>
-  </si>
-  <si>
-    <t>下毒</t>
-  </si>
-  <si>
-    <t>给对方手牌中的三张牌“下毒”。对方使用或弃置被下毒的牌时，敌方选手受到100点伤害，此伤害无视防御力和适应力。</t>
-  </si>
-  <si>
-    <t>张开大嘴</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“吞吐”。己方选手下一次使用技能的追加效果几率改为100%。</t>
-  </si>
-  <si>
-    <t>咽下去</t>
-  </si>
-  <si>
-    <t>本回合中，消耗对手弃置的牌。</t>
-  </si>
-  <si>
-    <t>压制</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“吐火”。己方选手下一次使用技能效果不好时，将伤害倍率改为1.5。</t>
-  </si>
-  <si>
-    <t>永不停歇</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“轰隆隆隆隆”。己方选手下一次使用技能时，用该选手的速度代替攻击力进行伤害计算。</t>
-  </si>
-  <si>
-    <t>掌握节奏</t>
-  </si>
-  <si>
-    <t>从牌组中抽取一张“咚咚锵”。己方选手下一次使用技能时，必定会造成最多次伤害。</t>
-  </si>
-  <si>
-    <t>风之语</t>
-  </si>
-  <si>
-    <t>本回合中，对手弃置手牌时，你抽取等量的牌。</t>
-  </si>
-  <si>
-    <t>呼啸而过</t>
-  </si>
-  <si>
-    <t>本回合中，己方选手下一次使用风属性技能时，该选手的速度提高20点。</t>
-  </si>
-  <si>
-    <t>晶体化</t>
-  </si>
-  <si>
-    <t>消耗。本回合中，己方选手属性发生变化时，会保留原本的属性。</t>
-  </si>
-  <si>
-    <t>战术规划</t>
-  </si>
-  <si>
-    <t>消耗。从你的牌库中抽取两张指挥牌。</t>
-  </si>
-  <si>
-    <t>挥洒草种</t>
-  </si>
-  <si>
-    <t>消耗。将本局对战的战场改为草地。</t>
-  </si>
-  <si>
-    <t>扬沙</t>
-  </si>
-  <si>
-    <t>消耗。将本局对战的战场改为沙漠。</t>
-  </si>
-  <si>
-    <t>喷水</t>
-  </si>
-  <si>
-    <t>消耗。将本局对战的战场改为海洋。</t>
-  </si>
-  <si>
-    <t>轮转</t>
-  </si>
-  <si>
-    <t>消耗。选择一名其他己方选手，更换当前选手下场，并更换该选手上场。</t>
-  </si>
-  <si>
-    <t>保时捷的赞助</t>
-  </si>
-  <si>
-    <t>感谢保时捷对本次比赛的大力支持！抽牌直到你的手牌数量达到上限。【特殊：此牌不计入指挥牌上限，不能被交换，并且在牌组中只有一张。】</t>
-  </si>
-  <si>
-    <t>开发送你花</t>
-  </si>
-  <si>
-    <t>送给对手一朵珍藏的花，对手会因此得到心灵上的治愈。</t>
-  </si>
-  <si>
-    <t>策划的帮助</t>
-  </si>
-  <si>
-    <t>消耗。\n策划选择来帮你一下。\n己方选手恢复10%的最大生命。</t>
-  </si>
-  <si>
-    <t>美术之眼</t>
-  </si>
-  <si>
-    <t>消耗。\n美术清澈的眼睛注视对手，手却快速地偷偷摸牌。\n己方选手防御力减少20点，然后抽四张牌。</t>
   </si>
   <si>
     <t>美术的大手</t>
@@ -845,7 +845,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,12 +887,6 @@
     <font>
       <sz val="9.8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1471,137 +1465,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,14 +1641,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2355,7 +2345,7 @@
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -2478,7 +2468,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="J4">
@@ -2519,24 +2509,24 @@
       </c>
     </row>
     <row r="8" ht="14.55" spans="8:11">
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="14.55" spans="8:11">
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2552,10 +2542,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2938,7 +2928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" ht="14.55" spans="8:11">
+    <row r="30" spans="8:11">
       <c r="H30" s="4" t="s">
         <v>103</v>
       </c>
@@ -2949,7 +2939,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" ht="14.55" spans="8:11">
+    <row r="31" spans="8:11">
       <c r="H31" s="4" t="s">
         <v>105</v>
       </c>
@@ -2972,13 +2962,13 @@
       </c>
     </row>
     <row r="33" ht="14.55" spans="8:11">
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>109</v>
       </c>
       <c r="J33">
         <v>29</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3016,7 +3006,7 @@
       </c>
     </row>
     <row r="37" ht="14.55" spans="8:11">
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="16" t="s">
         <v>117</v>
       </c>
       <c r="J37">
@@ -3027,7 +3017,7 @@
       </c>
     </row>
     <row r="38" ht="14.55" spans="8:11">
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="4" t="s">
         <v>119</v>
       </c>
       <c r="J38">
@@ -3357,17 +3347,17 @@
       </c>
     </row>
     <row r="68" ht="14.55" spans="8:11">
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="17" t="s">
         <v>179</v>
       </c>
       <c r="J68">
         <v>64</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" ht="14.55" spans="8:11">
+    <row r="69" spans="8:11">
       <c r="H69" s="18" t="s">
         <v>181</v>
       </c>
@@ -3379,13 +3369,13 @@
       </c>
     </row>
     <row r="70" spans="8:11">
-      <c r="H70" s="17" t="s">
+      <c r="H70" t="s">
         <v>183</v>
       </c>
       <c r="J70">
         <v>66</v>
       </c>
-      <c r="K70" s="17" t="s">
+      <c r="K70" s="18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3396,7 +3386,7 @@
       <c r="J71">
         <v>67</v>
       </c>
-      <c r="K71" s="17" t="s">
+      <c r="K71" s="18" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3407,7 +3397,7 @@
       <c r="J72">
         <v>68</v>
       </c>
-      <c r="K72" s="17" t="s">
+      <c r="K72" s="18" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3418,7 +3408,7 @@
       <c r="J73">
         <v>69</v>
       </c>
-      <c r="K73" s="19" t="s">
+      <c r="K73" s="18" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3429,37 +3419,33 @@
       <c r="J74">
         <v>70</v>
       </c>
-      <c r="K74" s="19" t="s">
+      <c r="K74" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="I75" s="19"/>
+      <c r="I75" s="18"/>
       <c r="J75">
         <v>71</v>
       </c>
-      <c r="K75" s="19" t="s">
+      <c r="K75" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="76" spans="8:11">
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="I76" s="19"/>
+      <c r="I76" s="18"/>
       <c r="J76">
         <v>72</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="K76" s="18" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="77" spans="9:10">
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3612,27 +3598,27 @@
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="8:8">
       <c r="H11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="8:8">
